--- a/data/trans_orig/Q23_tabaco_R-Clase-trans_orig.xlsx
+++ b/data/trans_orig/Q23_tabaco_R-Clase-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>24453</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>15478</v>
+        <v>15749</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>36489</v>
+        <v>35515</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1112885529153017</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.07044153559780811</v>
+        <v>0.07167789115639792</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1660684100330094</v>
+        <v>0.1616354308740277</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>23</v>
@@ -765,19 +765,19 @@
         <v>23062</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>15077</v>
+        <v>15148</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>32379</v>
+        <v>32743</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.2059514145923508</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1346424916081618</v>
+        <v>0.1352752164392992</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.2891632041974852</v>
+        <v>0.2924064379689023</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>46</v>
@@ -786,19 +786,19 @@
         <v>47514</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>35956</v>
+        <v>35429</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>60753</v>
+        <v>60899</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.143244923585466</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.108400133118271</v>
+        <v>0.1068114913484412</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1831571889370827</v>
+        <v>0.1835950867504505</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>94025</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>80473</v>
+        <v>80187</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>108996</v>
+        <v>109043</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.4279220485012564</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.3662464013828881</v>
+        <v>0.3649416744080172</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.4960570320018955</v>
+        <v>0.4962713649130564</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>49</v>
@@ -836,19 +836,19 @@
         <v>50842</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>40867</v>
+        <v>40302</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>61242</v>
+        <v>62053</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.4540450312648823</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.3649651576978688</v>
+        <v>0.3599139052091778</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.5469184952803298</v>
+        <v>0.5541630412342354</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>142</v>
@@ -857,19 +857,19 @@
         <v>144867</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>126129</v>
+        <v>126517</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>162386</v>
+        <v>163030</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.4367406676029346</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.3802477995162099</v>
+        <v>0.3814175494252355</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.4895541417508379</v>
+        <v>0.4914972239612275</v>
       </c>
     </row>
     <row r="6">
@@ -886,19 +886,19 @@
         <v>49660</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>38341</v>
+        <v>37906</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>63236</v>
+        <v>63197</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.2260099103761761</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.1744972864945756</v>
+        <v>0.1725167089349076</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.2877968161891412</v>
+        <v>0.2876208015025451</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>19</v>
@@ -907,19 +907,19 @@
         <v>20308</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>13353</v>
+        <v>12947</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>30643</v>
+        <v>29956</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.1813571557776499</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.1192509944675625</v>
+        <v>0.1156267940355277</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.2736562048481266</v>
+        <v>0.2675189444715422</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>67</v>
@@ -928,19 +928,19 @@
         <v>69968</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>56476</v>
+        <v>56239</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>86531</v>
+        <v>86530</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.2109359948816021</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.1702607228177325</v>
+        <v>0.1695459738918612</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.2608693905496584</v>
+        <v>0.260868077791304</v>
       </c>
     </row>
     <row r="7">
@@ -957,19 +957,19 @@
         <v>51587</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>40144</v>
+        <v>39683</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>65338</v>
+        <v>64693</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.2347794882072658</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1827030657318275</v>
+        <v>0.1806019093942846</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.2973607603857051</v>
+        <v>0.2944269751801735</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>17</v>
@@ -978,19 +978,19 @@
         <v>17765</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>11033</v>
+        <v>10677</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>26532</v>
+        <v>26624</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.158646398365117</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.09852660819926068</v>
+        <v>0.09535314969196862</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.2369404987098465</v>
+        <v>0.2377666904752513</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>68</v>
@@ -999,19 +999,19 @@
         <v>69352</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>55929</v>
+        <v>54966</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>85583</v>
+        <v>84691</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.2090784139299973</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1686137491837589</v>
+        <v>0.1657092685864233</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.258011610093375</v>
+        <v>0.255324721906298</v>
       </c>
     </row>
     <row r="8">
@@ -1103,19 +1103,19 @@
         <v>25943</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>16790</v>
+        <v>17329</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>36408</v>
+        <v>37130</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.141690630618628</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.09170129998540459</v>
+        <v>0.09464614520703095</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.1988479291255374</v>
+        <v>0.2027907880432711</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>26</v>
@@ -1124,19 +1124,19 @@
         <v>27705</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>19527</v>
+        <v>18977</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>39477</v>
+        <v>38448</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.1747117817135135</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.1231359634773108</v>
+        <v>0.1196722738859179</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.2489436878756947</v>
+        <v>0.2424570408697916</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>50</v>
@@ -1145,19 +1145,19 @@
         <v>53648</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>41253</v>
+        <v>40286</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>69482</v>
+        <v>68234</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.1570164228424179</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.1207400469373308</v>
+        <v>0.1179098961096058</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.2033599870677051</v>
+        <v>0.1997076845442929</v>
       </c>
     </row>
     <row r="10">
@@ -1174,19 +1174,19 @@
         <v>63033</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>49109</v>
+        <v>50734</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>75608</v>
+        <v>76135</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.3442621983494537</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.2682178362338146</v>
+        <v>0.2770892414238723</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.4129429776144077</v>
+        <v>0.4158222679371508</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>58</v>
@@ -1195,19 +1195,19 @@
         <v>59395</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>47029</v>
+        <v>47648</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>70927</v>
+        <v>73088</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.3745491813781465</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.2965663602821865</v>
+        <v>0.3004722808665006</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.4472718826323938</v>
+        <v>0.4608993949699913</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>119</v>
@@ -1216,19 +1216,19 @@
         <v>122427</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>104333</v>
+        <v>104598</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>139708</v>
+        <v>140361</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.3583190072005265</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.3053603835944689</v>
+        <v>0.3061361993166506</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.4088966602068804</v>
+        <v>0.4108082591981614</v>
       </c>
     </row>
     <row r="11">
@@ -1245,19 +1245,19 @@
         <v>41352</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>30567</v>
+        <v>29990</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>53089</v>
+        <v>53639</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.2258477006724669</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.1669441378975977</v>
+        <v>0.1637962180346673</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.2899509605753722</v>
+        <v>0.2929595226615495</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>32</v>
@@ -1266,19 +1266,19 @@
         <v>31659</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>22723</v>
+        <v>22096</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>42585</v>
+        <v>43399</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.1996451773524578</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.1432959087702636</v>
+        <v>0.1393390742705616</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.2685431134423878</v>
+        <v>0.2736784537092788</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>73</v>
@@ -1287,19 +1287,19 @@
         <v>73011</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>59575</v>
+        <v>57715</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>87838</v>
+        <v>88835</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.2136865731882204</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.1743636228248327</v>
+        <v>0.1689199002399409</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.257084378402345</v>
+        <v>0.2600018449951413</v>
       </c>
     </row>
     <row r="12">
@@ -1316,19 +1316,19 @@
         <v>52768</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>40212</v>
+        <v>41431</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>64613</v>
+        <v>65892</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.2881994703594514</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.2196238931722463</v>
+        <v>0.2262820683455905</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.3528920127338082</v>
+        <v>0.3598766837419396</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>39</v>
@@ -1337,19 +1337,19 @@
         <v>39818</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>29583</v>
+        <v>29306</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>51758</v>
+        <v>51196</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.2510938595558822</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.1865544846099488</v>
+        <v>0.1848080082948811</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.3263927520531408</v>
+        <v>0.3228443635660488</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>87</v>
@@ -1358,19 +1358,19 @@
         <v>92585</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>75450</v>
+        <v>77163</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>108107</v>
+        <v>109810</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.2709779967688353</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.2208264612335757</v>
+        <v>0.2258391579136791</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.3164077256072807</v>
+        <v>0.3213924177362948</v>
       </c>
     </row>
     <row r="13">
@@ -1462,19 +1462,19 @@
         <v>27823</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>18992</v>
+        <v>18377</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>39157</v>
+        <v>40510</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.09100407235372936</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.0621187713633489</v>
+        <v>0.06010803073326206</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.1280756240335562</v>
+        <v>0.1325033489995844</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>16</v>
@@ -1483,19 +1483,19 @@
         <v>15603</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>9242</v>
+        <v>9803</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>22439</v>
+        <v>23021</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.2557655787044258</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.151494342143884</v>
+        <v>0.1606845453448957</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.3678177010241899</v>
+        <v>0.3773680568823482</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>43</v>
@@ -1504,19 +1504,19 @@
         <v>43426</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>32067</v>
+        <v>31764</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>56830</v>
+        <v>57511</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.1184116129463784</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.08743823870325587</v>
+        <v>0.08661262588789355</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.1549632142433632</v>
+        <v>0.1568201932113062</v>
       </c>
     </row>
     <row r="15">
@@ -1533,19 +1533,19 @@
         <v>107228</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>91343</v>
+        <v>89835</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>125201</v>
+        <v>125780</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.3507262222542371</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.2987717846418417</v>
+        <v>0.2938383101225259</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.4095136952230226</v>
+        <v>0.4114082943794608</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>18</v>
@@ -1554,19 +1554,19 @@
         <v>17536</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>11851</v>
+        <v>11523</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>25414</v>
+        <v>24860</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.2874534543653733</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.1942625645120424</v>
+        <v>0.1888901878223548</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.4165827993924799</v>
+        <v>0.4075008315714947</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>121</v>
@@ -1575,19 +1575,19 @@
         <v>124764</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>107141</v>
+        <v>106965</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>143319</v>
+        <v>143831</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.340201003149769</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.2921490712254142</v>
+        <v>0.2916694250524169</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.3907974551480353</v>
+        <v>0.3921943245233989</v>
       </c>
     </row>
     <row r="16">
@@ -1604,19 +1604,19 @@
         <v>66487</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>52885</v>
+        <v>52461</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>80604</v>
+        <v>80465</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.2174694613142395</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1729801844727445</v>
+        <v>0.1715926116829327</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.2636436377668631</v>
+        <v>0.2631884884944585</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>15</v>
@@ -1625,19 +1625,19 @@
         <v>16048</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>10236</v>
+        <v>9959</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>23556</v>
+        <v>24128</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.2630565994076648</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1677880372190083</v>
+        <v>0.163250355218486</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.3861277190968595</v>
+        <v>0.3955113063625334</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>85</v>
@@ -1646,19 +1646,19 @@
         <v>82535</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>67166</v>
+        <v>68469</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>98979</v>
+        <v>100099</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.225052733435695</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1831467477872758</v>
+        <v>0.1866976034359318</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.2698923308128038</v>
+        <v>0.2729471216882045</v>
       </c>
     </row>
     <row r="17">
@@ -1675,19 +1675,19 @@
         <v>104193</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>88472</v>
+        <v>88504</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>120784</v>
+        <v>120318</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.3408002440777941</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.2893793853446056</v>
+        <v>0.289483199510509</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.3950683510744746</v>
+        <v>0.3935437214812369</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>12</v>
@@ -1696,19 +1696,19 @@
         <v>11818</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>6707</v>
+        <v>6083</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>18363</v>
+        <v>18705</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.1937243675225361</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.1099490237244556</v>
+        <v>0.09972005949495132</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.3010156274796417</v>
+        <v>0.3066170009641329</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>115</v>
@@ -1717,19 +1717,19 @@
         <v>116011</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>98111</v>
+        <v>98854</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>133709</v>
+        <v>134077</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.3163346504681576</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.2675259873569842</v>
+        <v>0.2695518625152211</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.3645919645162229</v>
+        <v>0.3655955337487389</v>
       </c>
     </row>
     <row r="18">
@@ -1821,19 +1821,19 @@
         <v>78627</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>63445</v>
+        <v>61707</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>97130</v>
+        <v>97705</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.1107771967051307</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.08938783816156472</v>
+        <v>0.08693842804826908</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.136846595477071</v>
+        <v>0.1376558249875278</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>52</v>
@@ -1842,19 +1842,19 @@
         <v>55268</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>41839</v>
+        <v>43084</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>69340</v>
+        <v>69050</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.2064690599596191</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.1562993992749625</v>
+        <v>0.1609510336862599</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.259039351678391</v>
+        <v>0.2579536906229795</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>128</v>
@@ -1863,19 +1863,19 @@
         <v>133895</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>113082</v>
+        <v>114432</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>156682</v>
+        <v>157652</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.1369829882916024</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.1156895652513145</v>
+        <v>0.1170708261067525</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.1602953606660419</v>
+        <v>0.1612880584276923</v>
       </c>
     </row>
     <row r="20">
@@ -1892,19 +1892,19 @@
         <v>212851</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>189203</v>
+        <v>187587</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>238593</v>
+        <v>237542</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.2998845445352482</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.2665679331708218</v>
+        <v>0.2642904935563022</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.3361526318445117</v>
+        <v>0.3346726476316265</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>81</v>
@@ -1913,19 +1913,19 @@
         <v>84242</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>69610</v>
+        <v>70351</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>102604</v>
+        <v>99929</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.3147090757733775</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.2600467289769009</v>
+        <v>0.2628139623626051</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.3833042984862894</v>
+        <v>0.3733102410332059</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>290</v>
@@ -1934,19 +1934,19 @@
         <v>297093</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>271778</v>
+        <v>270034</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>328255</v>
+        <v>325412</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.3039443314678151</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.2780453345325242</v>
+        <v>0.2762610393499076</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.3358253480036202</v>
+        <v>0.3329167730342057</v>
       </c>
     </row>
     <row r="21">
@@ -1963,19 +1963,19 @@
         <v>149578</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>127904</v>
+        <v>127593</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>169850</v>
+        <v>171948</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.2107398785195401</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.1802033694940575</v>
+        <v>0.179765198620728</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.2393007585804563</v>
+        <v>0.2422572948745757</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>54</v>
@@ -1984,19 +1984,19 @@
         <v>54750</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>40602</v>
+        <v>42489</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>68323</v>
+        <v>68989</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.2045332331375569</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.1516798579530901</v>
+        <v>0.1587303102001333</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.2552396115920758</v>
+        <v>0.2577277736945699</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>201</v>
@@ -2005,19 +2005,19 @@
         <v>204328</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>178981</v>
+        <v>176797</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>229746</v>
+        <v>232330</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.2090401513975086</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.1831082230090805</v>
+        <v>0.1808745362795211</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.2350447904457275</v>
+        <v>0.2376874846422947</v>
       </c>
     </row>
     <row r="22">
@@ -2034,19 +2034,19 @@
         <v>268720</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>245013</v>
+        <v>241352</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>295008</v>
+        <v>295531</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.378598380240081</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.3451982496384352</v>
+        <v>0.3400408305322549</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.415635992280401</v>
+        <v>0.4163720898401981</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>72</v>
@@ -2055,19 +2055,19 @@
         <v>73422</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>59716</v>
+        <v>60000</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>89209</v>
+        <v>88742</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.2742886311294465</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.223085934145528</v>
+        <v>0.2241458070138517</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.3332623530000914</v>
+        <v>0.3315205219519115</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>342</v>
@@ -2076,19 +2076,19 @@
         <v>342142</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>311331</v>
+        <v>313475</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>371563</v>
+        <v>371111</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.3500325288430739</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.3185105296430553</v>
+        <v>0.3207045683454426</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.380131807423937</v>
+        <v>0.3796691795953646</v>
       </c>
     </row>
     <row r="23">
@@ -2180,19 +2180,19 @@
         <v>24084</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>15634</v>
+        <v>16193</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>35231</v>
+        <v>34953</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.1110341496724671</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.07207911642422103</v>
+        <v>0.07465435550121301</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.1624259717410305</v>
+        <v>0.1611464219142023</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>46</v>
@@ -2201,19 +2201,19 @@
         <v>49247</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>37262</v>
+        <v>38051</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>61810</v>
+        <v>62836</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.2511187741029315</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.190001418694788</v>
+        <v>0.1940280432774986</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.3151760371077554</v>
+        <v>0.3204079292861383</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>69</v>
@@ -2222,19 +2222,19 @@
         <v>73331</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>57590</v>
+        <v>58730</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>89129</v>
+        <v>90725</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.1775503176675336</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.1394361634226196</v>
+        <v>0.1421962569710383</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.2157987280737686</v>
+        <v>0.2196644576082618</v>
       </c>
     </row>
     <row r="25">
@@ -2251,19 +2251,19 @@
         <v>56950</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>44085</v>
+        <v>45283</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>71080</v>
+        <v>71532</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.2625564827833888</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.2032477772608112</v>
+        <v>0.2087708484613175</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.3277023077800918</v>
+        <v>0.3297863387464169</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>61</v>
@@ -2272,19 +2272,19 @@
         <v>63533</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>49893</v>
+        <v>51388</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>76849</v>
+        <v>77604</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.3239614847844748</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.2544131154165116</v>
+        <v>0.2620320030373832</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.3918631737626824</v>
+        <v>0.3957110168925537</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>115</v>
@@ -2293,19 +2293,19 @@
         <v>120483</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>101719</v>
+        <v>102373</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>138715</v>
+        <v>139350</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.2917133259804741</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.2462817945172244</v>
+        <v>0.2478648048533918</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.3358575102756849</v>
+        <v>0.3373937517210725</v>
       </c>
     </row>
     <row r="26">
@@ -2322,19 +2322,19 @@
         <v>40409</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>30424</v>
+        <v>29935</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>53140</v>
+        <v>53163</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.1862990060396671</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.1402635531693936</v>
+        <v>0.1380093261720291</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.2449933090853235</v>
+        <v>0.2451000064052343</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>20</v>
@@ -2343,19 +2343,19 @@
         <v>21596</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>13442</v>
+        <v>13762</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>32393</v>
+        <v>32392</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.1101205469688348</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.06854500426812236</v>
+        <v>0.0701748168064343</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.1651782192328631</v>
+        <v>0.1651685038401756</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>60</v>
@@ -2364,19 +2364,19 @@
         <v>62005</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>47790</v>
+        <v>48168</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>78122</v>
+        <v>77949</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.150127304814341</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.1157102442732551</v>
+        <v>0.1166250168929599</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.1891484416447091</v>
+        <v>0.1887313715245538</v>
       </c>
     </row>
     <row r="27">
@@ -2393,19 +2393,19 @@
         <v>95462</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>79898</v>
+        <v>79505</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>109320</v>
+        <v>109374</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.440110361504477</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.3683542172219996</v>
+        <v>0.3665438890948461</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.5039991307491172</v>
+        <v>0.5042491777149186</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>61</v>
@@ -2414,19 +2414,19 @@
         <v>61736</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>49763</v>
+        <v>50061</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>76433</v>
+        <v>75347</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.314799194143759</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.2537488925835311</v>
+        <v>0.2552697646342861</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.3897436124577458</v>
+        <v>0.3842054400974077</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>152</v>
@@ -2435,19 +2435,19 @@
         <v>157198</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>137136</v>
+        <v>137126</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>178725</v>
+        <v>176845</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.3806090515376513</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.3320346499505217</v>
+        <v>0.3320101855658381</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.4327301548368787</v>
+        <v>0.4281767132147284</v>
       </c>
     </row>
     <row r="28">
@@ -2539,19 +2539,19 @@
         <v>4900</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>1415</v>
+        <v>1381</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>11745</v>
+        <v>11315</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.06524249060708852</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.01884499554921919</v>
+        <v>0.01839070816890788</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.1563965689115116</v>
+        <v>0.1506599353108888</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>42</v>
@@ -2560,19 +2560,19 @@
         <v>43628</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>31830</v>
+        <v>33525</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>55639</v>
+        <v>56238</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.2177540744076556</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.1588660133957358</v>
+        <v>0.167327001628926</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.2777034391647648</v>
+        <v>0.2806941835752654</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>46</v>
@@ -2581,19 +2581,19 @@
         <v>48528</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>36957</v>
+        <v>37196</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>62153</v>
+        <v>62463</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.1761734101511342</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.1341664295318993</v>
+        <v>0.1350350581121695</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.2256378384534025</v>
+        <v>0.2267637064586137</v>
       </c>
     </row>
     <row r="30">
@@ -2610,19 +2610,19 @@
         <v>11194</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>6275</v>
+        <v>6204</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>19341</v>
+        <v>19476</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.1490594851373892</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.08355875065776759</v>
+        <v>0.08261235243107003</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.257539912782655</v>
+        <v>0.2593356774104767</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>64</v>
@@ -2631,19 +2631,19 @@
         <v>65329</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>53844</v>
+        <v>52073</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>80114</v>
+        <v>77617</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.3260655444673994</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.2687431575763126</v>
+        <v>0.2599058441541559</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.3998599298501372</v>
+        <v>0.3873968280251283</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>75</v>
@@ -2652,19 +2652,19 @@
         <v>76523</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>61773</v>
+        <v>61591</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>91711</v>
+        <v>91286</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.2778067214917266</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.2242588784961511</v>
+        <v>0.223599922668027</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.3329437534814745</v>
+        <v>0.3314017541734885</v>
       </c>
     </row>
     <row r="31">
@@ -2681,19 +2681,19 @@
         <v>24390</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>16912</v>
+        <v>16338</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>33017</v>
+        <v>32415</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.3247654109417326</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.2251960489644972</v>
+        <v>0.2175551705758803</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.4396441736778726</v>
+        <v>0.4316184090126595</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>35</v>
@@ -2702,19 +2702,19 @@
         <v>35012</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>24972</v>
+        <v>25695</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>46449</v>
+        <v>46287</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.1747484339049836</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.1246412576087164</v>
+        <v>0.1282478577030509</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.2318336257815471</v>
+        <v>0.2310247485780008</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>60</v>
@@ -2723,19 +2723,19 @@
         <v>59401</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>46950</v>
+        <v>47682</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>73729</v>
+        <v>73464</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.2156489701101564</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.1704441040298003</v>
+        <v>0.173102251424604</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.267664647278973</v>
+        <v>0.2667020798583807</v>
       </c>
     </row>
     <row r="32">
@@ -2752,19 +2752,19 @@
         <v>34616</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>26424</v>
+        <v>26390</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>44540</v>
+        <v>44010</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.4609326133137897</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.3518473080957063</v>
+        <v>0.3513949107338111</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.5930802812409522</v>
+        <v>0.5860146335124309</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>59</v>
@@ -2773,19 +2773,19 @@
         <v>56386</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>43975</v>
+        <v>45145</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>69313</v>
+        <v>69888</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.2814319472199613</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.2194841142956349</v>
+        <v>0.2253270569372931</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.3459515575105891</v>
+        <v>0.3488186809348758</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>95</v>
@@ -2794,19 +2794,19 @@
         <v>91002</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>75653</v>
+        <v>76201</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>105563</v>
+        <v>106595</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.3303708982469828</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.2746491853108002</v>
+        <v>0.2766393603326637</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.3832332681545008</v>
+        <v>0.3869804332835008</v>
       </c>
     </row>
     <row r="33">
@@ -2898,19 +2898,19 @@
         <v>185829</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>162113</v>
+        <v>161408</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>214526</v>
+        <v>213974</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.1086508822729968</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.09478440035927968</v>
+        <v>0.09437260605225394</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.1254298659603736</v>
+        <v>0.1251070131161235</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>205</v>
@@ -2919,19 +2919,19 @@
         <v>214514</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>187854</v>
+        <v>187393</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>240944</v>
+        <v>239034</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.2154383473037949</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.1886633809088538</v>
+        <v>0.1882009569741535</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.2419829418792896</v>
+        <v>0.2400641537465699</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>382</v>
@@ -2940,19 +2940,19 @@
         <v>400342</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>365555</v>
+        <v>367292</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>438048</v>
+        <v>440446</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.1479441672060459</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.1350887139295129</v>
+        <v>0.1357307346692295</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.1618779544254184</v>
+        <v>0.1627641922063059</v>
       </c>
     </row>
     <row r="35">
@@ -2969,19 +2969,19 @@
         <v>545280</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>506451</v>
+        <v>509236</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>586769</v>
+        <v>583090</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.3188157604739761</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.2961131406406824</v>
+        <v>0.297741655996972</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.3430733705200921</v>
+        <v>0.3409225540831135</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>331</v>
@@ -2990,19 +2990,19 @@
         <v>340877</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>310356</v>
+        <v>315331</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>372382</v>
+        <v>371175</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.3423463226598583</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.3116941578399496</v>
+        <v>0.3166901593004592</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.3739875179044587</v>
+        <v>0.3727751499761587</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>862</v>
@@ -3011,19 +3011,19 @@
         <v>886157</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>833035</v>
+        <v>840206</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>934353</v>
+        <v>935920</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.3274740153013385</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.3078433107174551</v>
+        <v>0.310493057161435</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.3452844754153952</v>
+        <v>0.3458637578973784</v>
       </c>
     </row>
     <row r="36">
@@ -3040,19 +3040,19 @@
         <v>371875</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>337729</v>
+        <v>338449</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>408286</v>
+        <v>407828</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.2174290793521446</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.197464453430107</v>
+        <v>0.1978851146142587</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.2387175300326318</v>
+        <v>0.2384496444225735</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>175</v>
@@ -3061,19 +3061,19 @@
         <v>179372</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>155190</v>
+        <v>156893</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>202319</v>
+        <v>206524</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.1801454542014169</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.1558589558935726</v>
+        <v>0.1575689296165668</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.2031910118281727</v>
+        <v>0.2074143097826043</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>546</v>
@@ -3082,19 +3082,19 @@
         <v>551248</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>507923</v>
+        <v>510090</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>589799</v>
+        <v>591160</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.2037102771878455</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.1876998695287881</v>
+        <v>0.1885007998565212</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.2179567505354984</v>
+        <v>0.2184597060288564</v>
       </c>
     </row>
     <row r="37">
@@ -3111,19 +3111,19 @@
         <v>607345</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>572186</v>
+        <v>567417</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>647496</v>
+        <v>646241</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.3551042779008824</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.3345469638571553</v>
+        <v>0.33175878982169</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.3785795280064431</v>
+        <v>0.3778458015451739</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>260</v>
@@ -3132,19 +3132,19 @@
         <v>260945</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>233843</v>
+        <v>235153</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>289278</v>
+        <v>289112</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.2620698758349299</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.234851349061347</v>
+        <v>0.2361667001877197</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.2905251527248186</v>
+        <v>0.290357771554266</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>859</v>
@@ -3153,19 +3153,19 @@
         <v>868290</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>821357</v>
+        <v>816719</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>920215</v>
+        <v>914713</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.3208715403047702</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.3035274930717679</v>
+        <v>0.3018138287408645</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.3400599711810623</v>
+        <v>0.3380269194161983</v>
       </c>
     </row>
     <row r="38">
@@ -3499,19 +3499,19 @@
         <v>57124</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>44582</v>
+        <v>43366</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>72358</v>
+        <v>71882</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.2313696117666739</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.180571307709278</v>
+        <v>0.1756456646205632</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.2930688898300535</v>
+        <v>0.2911426829009571</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>32</v>
@@ -3520,19 +3520,19 @@
         <v>36825</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>25972</v>
+        <v>25567</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>48409</v>
+        <v>48668</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.2557883114435341</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1804011758051323</v>
+        <v>0.1775909904274896</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.3362483904530689</v>
+        <v>0.338051127348556</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>81</v>
@@ -3541,19 +3541,19 @@
         <v>93950</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>76199</v>
+        <v>75291</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>114225</v>
+        <v>112004</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.2403637770832507</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1949501699320592</v>
+        <v>0.1926277751443244</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.2922373136789885</v>
+        <v>0.2865536650429399</v>
       </c>
     </row>
     <row r="5">
@@ -3570,19 +3570,19 @@
         <v>83615</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>67917</v>
+        <v>68870</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>97865</v>
+        <v>98282</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.3386660240960429</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.2750851679094526</v>
+        <v>0.2789444915064249</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.3963826872172019</v>
+        <v>0.3980700949158837</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>50</v>
@@ -3591,19 +3591,19 @@
         <v>54747</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>43124</v>
+        <v>42952</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>66308</v>
+        <v>67856</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.3802753248651581</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.2995382839807374</v>
+        <v>0.2983433476463906</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.4605801095969734</v>
+        <v>0.4713330885573961</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>131</v>
@@ -3612,19 +3612,19 @@
         <v>138363</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>117852</v>
+        <v>119616</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>156902</v>
+        <v>158216</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.3539920215806357</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.3015161011635291</v>
+        <v>0.3060305233884296</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.40142359535543</v>
+        <v>0.4047852330673694</v>
       </c>
     </row>
     <row r="6">
@@ -3641,19 +3641,19 @@
         <v>50268</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>38973</v>
+        <v>37603</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>66386</v>
+        <v>63971</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.2036004917800568</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.1578519093800238</v>
+        <v>0.1523011278309827</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.2688808418765708</v>
+        <v>0.2591026867610731</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>23</v>
@@ -3662,19 +3662,19 @@
         <v>24734</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>16991</v>
+        <v>15535</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>35565</v>
+        <v>35142</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.1718002951625971</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.1180187682148604</v>
+        <v>0.1079098103928727</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.2470389382048467</v>
+        <v>0.2440974093992322</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>71</v>
@@ -3683,19 +3683,19 @@
         <v>75002</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>58909</v>
+        <v>60022</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>93609</v>
+        <v>92441</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.1918874919372309</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.150714829005927</v>
+        <v>0.1535629468922496</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.2394934268051253</v>
+        <v>0.236503851727278</v>
       </c>
     </row>
     <row r="7">
@@ -3712,19 +3712,19 @@
         <v>55888</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>43718</v>
+        <v>43383</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>70244</v>
+        <v>72824</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.2263638723572264</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1770698218945597</v>
+        <v>0.1757132479518102</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.2845099695247185</v>
+        <v>0.2949597494043754</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>24</v>
@@ -3733,19 +3733,19 @@
         <v>27661</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>18986</v>
+        <v>18635</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>39747</v>
+        <v>39407</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1921360685287107</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1318779339715773</v>
+        <v>0.1294407090598514</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.2760846060344774</v>
+        <v>0.2737252470620599</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>75</v>
@@ -3754,19 +3754,19 @@
         <v>83550</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>67200</v>
+        <v>67526</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>101880</v>
+        <v>101857</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.2137567093988827</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.171927368261759</v>
+        <v>0.1727602169672779</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.2606526538072695</v>
+        <v>0.2605946452046742</v>
       </c>
     </row>
     <row r="8">
@@ -3858,19 +3858,19 @@
         <v>47268</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>35541</v>
+        <v>33809</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>64665</v>
+        <v>61619</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.2040447236586016</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.1534207330434273</v>
+        <v>0.1459437078330383</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.2791404236217399</v>
+        <v>0.2659913936744109</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>32</v>
@@ -3879,19 +3879,19 @@
         <v>35505</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>24876</v>
+        <v>25098</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>47892</v>
+        <v>47374</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.2057240232459993</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.1441384429991488</v>
+        <v>0.1454194951945861</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.2774970940911021</v>
+        <v>0.2744942133423457</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>72</v>
@@ -3900,19 +3900,19 @@
         <v>82774</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>66494</v>
+        <v>65982</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>100143</v>
+        <v>102673</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.204761679855203</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.1644903852670206</v>
+        <v>0.1632232229337683</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.2477294557933598</v>
+        <v>0.2539867306375716</v>
       </c>
     </row>
     <row r="10">
@@ -3929,19 +3929,19 @@
         <v>70618</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>56919</v>
+        <v>55573</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>85146</v>
+        <v>86911</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.3048366295293811</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.2457016546394666</v>
+        <v>0.2398915511392594</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.3675511745272955</v>
+        <v>0.3751720472311488</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>58</v>
@@ -3950,19 +3950,19 @@
         <v>63146</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>48236</v>
+        <v>49488</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>76361</v>
+        <v>76147</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.3658790153178231</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.2794853790361727</v>
+        <v>0.2867431172852713</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.4424520457805793</v>
+        <v>0.4412121726826396</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>124</v>
@@ -3971,19 +3971,19 @@
         <v>133763</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>112497</v>
+        <v>114747</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>154961</v>
+        <v>155936</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.3308979214363102</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.278290040526066</v>
+        <v>0.2838562317532348</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.3833343176607456</v>
+        <v>0.3857480813548804</v>
       </c>
     </row>
     <row r="11">
@@ -4000,19 +4000,19 @@
         <v>51121</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>38796</v>
+        <v>39605</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>65984</v>
+        <v>66425</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.2206747024181475</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.1674699736925833</v>
+        <v>0.1709659403571921</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.2848353271188949</v>
+        <v>0.2867405038134491</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>26</v>
@@ -4021,19 +4021,19 @@
         <v>29397</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>20258</v>
+        <v>19978</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>41575</v>
+        <v>42744</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.1703309801620792</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.117377511628193</v>
+        <v>0.1157554829867033</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.2408932920272081</v>
+        <v>0.2476650438281555</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>73</v>
@@ -4042,19 +4042,19 @@
         <v>80518</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>65029</v>
+        <v>64970</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>98743</v>
+        <v>98374</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.1991810726320525</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.1608656338635784</v>
+        <v>0.1607188343508231</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.2442647238243126</v>
+        <v>0.2433540834656358</v>
       </c>
     </row>
     <row r="12">
@@ -4071,19 +4071,19 @@
         <v>62650</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>49383</v>
+        <v>48066</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>78044</v>
+        <v>78176</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.2704439443938698</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.2131729492515782</v>
+        <v>0.2074877948866064</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.3368933799252777</v>
+        <v>0.3374630519089292</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>38</v>
@@ -4092,19 +4092,19 @@
         <v>44539</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>32374</v>
+        <v>33096</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>59635</v>
+        <v>58307</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.2580659812740985</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.1875831182541224</v>
+        <v>0.1917618640895725</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.3455385453649779</v>
+        <v>0.3378429614744007</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>93</v>
@@ -4113,19 +4113,19 @@
         <v>107189</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>89008</v>
+        <v>87458</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>127597</v>
+        <v>127412</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.2651593260764343</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.2201844552106523</v>
+        <v>0.2163488619118014</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.3156445008150359</v>
+        <v>0.3151860403122023</v>
       </c>
     </row>
     <row r="13">
@@ -4217,19 +4217,19 @@
         <v>64678</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>49813</v>
+        <v>48626</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>81519</v>
+        <v>82495</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.1596440702677307</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.1229537119679879</v>
+        <v>0.1200240061251592</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.20121245999953</v>
+        <v>0.2036205379664608</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>30</v>
@@ -4238,19 +4238,19 @@
         <v>32361</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>23792</v>
+        <v>23142</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>42607</v>
+        <v>43213</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.285630192942009</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.2099949961197396</v>
+        <v>0.2042541222250413</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.3760615516290216</v>
+        <v>0.3814057740839275</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>85</v>
@@ -4259,19 +4259,19 @@
         <v>97039</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>78480</v>
+        <v>78308</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>117603</v>
+        <v>116238</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.1871767625782622</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.1513779388170094</v>
+        <v>0.1510457171978307</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.2268422561358207</v>
+        <v>0.2242076274703555</v>
       </c>
     </row>
     <row r="15">
@@ -4288,19 +4288,19 @@
         <v>111080</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>93323</v>
+        <v>92897</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>130076</v>
+        <v>131618</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.2741769546458698</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.2303472301238989</v>
+        <v>0.229296484370013</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.3210653037471632</v>
+        <v>0.3248703587511146</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>36</v>
@@ -4309,19 +4309,19 @@
         <v>38910</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>29131</v>
+        <v>28955</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>50337</v>
+        <v>49119</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.3434314434477659</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.2571176914864484</v>
+        <v>0.255566431988118</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.44428932906373</v>
+        <v>0.4335412342071011</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>143</v>
@@ -4330,19 +4330,19 @@
         <v>149990</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>128498</v>
+        <v>131311</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>173219</v>
+        <v>172570</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.2893116575070369</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.2478564720102276</v>
+        <v>0.2532816955053213</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.3341184310388194</v>
+        <v>0.3328657845579397</v>
       </c>
     </row>
     <row r="16">
@@ -4359,19 +4359,19 @@
         <v>74942</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>59351</v>
+        <v>60170</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>91738</v>
+        <v>91292</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1849780908094759</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1464943709722515</v>
+        <v>0.1485159653940112</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.2264351948183717</v>
+        <v>0.2253344828684395</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>19</v>
@@ -4380,19 +4380,19 @@
         <v>20050</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>13029</v>
+        <v>13441</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>29018</v>
+        <v>29844</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1769674153416154</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1149986499284527</v>
+        <v>0.1186347214404898</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.2561168283454788</v>
+        <v>0.2634071832883426</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>90</v>
@@ -4401,19 +4401,19 @@
         <v>94992</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>78453</v>
+        <v>78976</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>114303</v>
+        <v>115886</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1832274578177269</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1513268589590859</v>
+        <v>0.1523348658381615</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.2204766746334706</v>
+        <v>0.2235289673764811</v>
       </c>
     </row>
     <row r="17">
@@ -4430,19 +4430,19 @@
         <v>154439</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>133613</v>
+        <v>134017</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>173207</v>
+        <v>176220</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.3812008842769236</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.3297961395283095</v>
+        <v>0.3307922738293012</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.4275257756023847</v>
+        <v>0.4349611183321234</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>21</v>
@@ -4451,19 +4451,19 @@
         <v>21977</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>14410</v>
+        <v>14042</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>30889</v>
+        <v>30482</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.1939709482686097</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.1271868066567743</v>
+        <v>0.1239362477714864</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.2726356876261836</v>
+        <v>0.269039381059362</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>166</v>
@@ -4472,19 +4472,19 @@
         <v>176416</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>154054</v>
+        <v>153536</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>197931</v>
+        <v>199490</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.340284122096974</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.2971513958818996</v>
+        <v>0.2961511826243559</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.3817847929047584</v>
+        <v>0.3847920252389037</v>
       </c>
     </row>
     <row r="18">
@@ -4576,19 +4576,19 @@
         <v>116851</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>94795</v>
+        <v>96363</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>139233</v>
+        <v>139063</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.1510072655792148</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.1225042772703216</v>
+        <v>0.1245300200496832</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.1799307325647746</v>
+        <v>0.17971160197301</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>77</v>
@@ -4597,19 +4597,19 @@
         <v>85501</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>69884</v>
+        <v>70247</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>104786</v>
+        <v>102771</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.2192736724856194</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.1792229337360604</v>
+        <v>0.180153729567183</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.2687307332807319</v>
+        <v>0.2635638687329147</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>179</v>
@@ -4618,19 +4618,19 @@
         <v>202352</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>176139</v>
+        <v>177304</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>229390</v>
+        <v>231237</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.1738809033635764</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.1513558659921152</v>
+        <v>0.1523570215521488</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.1971142123043262</v>
+        <v>0.1987013058315353</v>
       </c>
     </row>
     <row r="20">
@@ -4647,19 +4647,19 @@
         <v>222816</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>198596</v>
+        <v>199012</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>250718</v>
+        <v>251540</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.2879458358521174</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.2566468828857695</v>
+        <v>0.2571843227217942</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.3240042353946352</v>
+        <v>0.3250654252229477</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>115</v>
@@ -4668,19 +4668,19 @@
         <v>123716</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>104447</v>
+        <v>103247</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>143963</v>
+        <v>141927</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.3172790586305319</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.26786327401483</v>
+        <v>0.264785382754843</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.3692045201087424</v>
+        <v>0.363983455581711</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>323</v>
@@ -4689,19 +4689,19 @@
         <v>346532</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>311682</v>
+        <v>312086</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>378007</v>
+        <v>378252</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.2977743524430278</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.2678281906428652</v>
+        <v>0.2681750897354248</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.3248204927969836</v>
+        <v>0.325031513949112</v>
       </c>
     </row>
     <row r="21">
@@ -4718,19 +4718,19 @@
         <v>124909</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>105331</v>
+        <v>105610</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>147539</v>
+        <v>148212</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.1614206684101658</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.136119636345506</v>
+        <v>0.1364800600170637</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.1906654490779731</v>
+        <v>0.1915344240150139</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>66</v>
@@ -4739,19 +4739,19 @@
         <v>69561</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>55547</v>
+        <v>52482</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>88054</v>
+        <v>84659</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.178393823716045</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.1424546227621012</v>
+        <v>0.1345949575155086</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.2258202788773398</v>
+        <v>0.2171134774694549</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>184</v>
@@ -4760,19 +4760,19 @@
         <v>194470</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>168395</v>
+        <v>168165</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>219773</v>
+        <v>221812</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.1671077672940529</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.1447019038306626</v>
+        <v>0.1445036996780911</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.1888504941456685</v>
+        <v>0.1906030569126569</v>
       </c>
     </row>
     <row r="22">
@@ -4789,19 +4789,19 @@
         <v>309236</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>280944</v>
+        <v>279230</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>337239</v>
+        <v>336484</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.3996262301585021</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.3630655027577001</v>
+        <v>0.360850164490492</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.4358157727603852</v>
+        <v>0.4348392922164438</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>100</v>
@@ -4810,19 +4810,19 @@
         <v>111150</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>93030</v>
+        <v>93445</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>129991</v>
+        <v>130846</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.2850534451678038</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.2385821443111968</v>
+        <v>0.2396476012430326</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.3333711989789317</v>
+        <v>0.3355640728106596</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>393</v>
@@ -4831,19 +4831,19 @@
         <v>420386</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>388152</v>
+        <v>389239</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>455475</v>
+        <v>456196</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.361236976899343</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.3335383778187443</v>
+        <v>0.3344721510206584</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.3913887715132816</v>
+        <v>0.3920086140101556</v>
       </c>
     </row>
     <row r="23">
@@ -4935,19 +4935,19 @@
         <v>47755</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>35505</v>
+        <v>36330</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>60403</v>
+        <v>61230</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.1482867514220549</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.1102484793280983</v>
+        <v>0.1128085322251149</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.1875581977947985</v>
+        <v>0.1901284542098653</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>57</v>
@@ -4956,19 +4956,19 @@
         <v>61031</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>47425</v>
+        <v>48185</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>76365</v>
+        <v>75661</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.2187123082412419</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.1699510724071546</v>
+        <v>0.1726767091699203</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.2736627478833123</v>
+        <v>0.2711399987264651</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>103</v>
@@ -4977,19 +4977,19 @@
         <v>108787</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>90598</v>
+        <v>88664</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>128829</v>
+        <v>128868</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.1809806567292881</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.1507207376754078</v>
+        <v>0.1475028569715022</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.214323035848366</v>
+        <v>0.2143873917682544</v>
       </c>
     </row>
     <row r="25">
@@ -5006,19 +5006,19 @@
         <v>85843</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>70383</v>
+        <v>71557</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>102847</v>
+        <v>101140</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.2665538626298986</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.2185489841082323</v>
+        <v>0.2221928155513439</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.3193520849728053</v>
+        <v>0.3140538831514919</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>76</v>
@@ -5027,19 +5027,19 @@
         <v>80908</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>65899</v>
+        <v>65876</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>97811</v>
+        <v>99420</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.2899429959245975</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.2361554959980502</v>
+        <v>0.2360738080006946</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.350517003373834</v>
+        <v>0.3562812399759078</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>157</v>
@@ -5048,19 +5048,19 @@
         <v>166751</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>142148</v>
+        <v>144784</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>188206</v>
+        <v>190309</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.2774118826966538</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.2364812101783779</v>
+        <v>0.2408660922574461</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.3131042664644323</v>
+        <v>0.3166024928936024</v>
       </c>
     </row>
     <row r="26">
@@ -5077,19 +5077,19 @@
         <v>65593</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>53196</v>
+        <v>52092</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>83104</v>
+        <v>81198</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.2036755952108007</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.1651809753389784</v>
+        <v>0.1617510564810395</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.2580486920526295</v>
+        <v>0.2521292247934394</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>48</v>
@@ -5098,19 +5098,19 @@
         <v>52898</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>40171</v>
+        <v>40062</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>67360</v>
+        <v>67495</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.1895648586072877</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.1439564505748048</v>
+        <v>0.1435646090229955</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.2413911146244614</v>
+        <v>0.2418761709020849</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>109</v>
@@ -5119,19 +5119,19 @@
         <v>118491</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>100711</v>
+        <v>98098</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>140367</v>
+        <v>138689</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.1971249180537139</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.1675460829357068</v>
+        <v>0.1631988053115203</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.233517705871074</v>
+        <v>0.2307263349108769</v>
       </c>
     </row>
     <row r="27">
@@ -5148,19 +5148,19 @@
         <v>122856</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>105894</v>
+        <v>107012</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>140469</v>
+        <v>139979</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.3814837907372459</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.3288143160148301</v>
+        <v>0.3322854639155964</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.4361748630161599</v>
+        <v>0.4346510902483133</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>76</v>
@@ -5169,19 +5169,19 @@
         <v>84211</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>68556</v>
+        <v>68117</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>101564</v>
+        <v>100048</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.301779837226873</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.245676047152645</v>
+        <v>0.2441031701266876</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.3639661512363901</v>
+        <v>0.3585318265154114</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>194</v>
@@ -5190,19 +5190,19 @@
         <v>207067</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>185713</v>
+        <v>182752</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>231753</v>
+        <v>230367</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.3444825425203442</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.3089560136080529</v>
+        <v>0.3040315054225355</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.3855502299708781</v>
+        <v>0.383244691718152</v>
       </c>
     </row>
     <row r="28">
@@ -5297,7 +5297,7 @@
         <v>0</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>7370</v>
+        <v>7944</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.04268196533146746</v>
@@ -5306,7 +5306,7 @@
         <v>0</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.1358387420400024</v>
+        <v>0.1464239933130372</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>48</v>
@@ -5315,19 +5315,19 @@
         <v>53173</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>39433</v>
+        <v>40061</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>66518</v>
+        <v>66237</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.2466343734076156</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.182903210711787</v>
+        <v>0.1858176460533782</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.3085318101196351</v>
+        <v>0.3072272904141085</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>50</v>
@@ -5336,19 +5336,19 @@
         <v>55489</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>42173</v>
+        <v>42144</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>68955</v>
+        <v>71485</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.2056285199924366</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.1562840507917931</v>
+        <v>0.1561750498889671</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.2555323255136516</v>
+        <v>0.2649073437012784</v>
       </c>
     </row>
     <row r="30">
@@ -5365,19 +5365,19 @@
         <v>20356</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>13560</v>
+        <v>13631</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>27408</v>
+        <v>27443</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.3751972196865913</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.2499331214588116</v>
+        <v>0.2512469467256399</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.5051678540817502</v>
+        <v>0.5058107831963201</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>51</v>
@@ -5386,19 +5386,19 @@
         <v>53271</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>41440</v>
+        <v>41651</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>66506</v>
+        <v>66807</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.2470894808900097</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.192210712164679</v>
+        <v>0.1931932279458853</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.3084776569522444</v>
+        <v>0.3098733983362015</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>72</v>
@@ -5407,19 +5407,19 @@
         <v>73628</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>59694</v>
+        <v>59172</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>90265</v>
+        <v>88297</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.2728463092010602</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.2212129061965247</v>
+        <v>0.2192764009393622</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.3344991153930795</v>
+        <v>0.3272066185671845</v>
       </c>
     </row>
     <row r="31">
@@ -5436,19 +5436,19 @@
         <v>6514</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>2910</v>
+        <v>2818</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>13019</v>
+        <v>12389</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.1200602937848302</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.0536353074466152</v>
+        <v>0.05193261682896118</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.2399679607749727</v>
+        <v>0.2283476433646684</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>32</v>
@@ -5457,19 +5457,19 @@
         <v>35030</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>25499</v>
+        <v>25061</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>48191</v>
+        <v>46087</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.162482163471075</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.118270968759632</v>
+        <v>0.1162406578235294</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.2235249166544608</v>
+        <v>0.2137642773024446</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>39</v>
@@ -5478,19 +5478,19 @@
         <v>41544</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>30111</v>
+        <v>30268</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>54785</v>
+        <v>54259</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.1539529924435748</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.1115836493457871</v>
+        <v>0.1121658155306581</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.203021857883164</v>
+        <v>0.2010718825248992</v>
       </c>
     </row>
     <row r="32">
@@ -5507,19 +5507,19 @@
         <v>25069</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>18105</v>
+        <v>18414</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>31995</v>
+        <v>33227</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.4620605211971111</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.3337038570814308</v>
+        <v>0.3394038330188396</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.5897077790548064</v>
+        <v>0.6124202899981934</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>72</v>
@@ -5528,19 +5528,19 @@
         <v>74120</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>60424</v>
+        <v>61328</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>88058</v>
+        <v>88521</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.3437939822312997</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.2802682503053047</v>
+        <v>0.2844598275551954</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.4084400115508453</v>
+        <v>0.4105890919188739</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>96</v>
@@ -5549,19 +5549,19 @@
         <v>99189</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>82966</v>
+        <v>84749</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>115909</v>
+        <v>114181</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.3675721783629284</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.3074514717485203</v>
+        <v>0.3140603736308095</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.4295308096522981</v>
+        <v>0.423126417255537</v>
       </c>
     </row>
     <row r="33">
@@ -5653,19 +5653,19 @@
         <v>335993</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>301293</v>
+        <v>300962</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>372872</v>
+        <v>374979</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.1652040136733726</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.1481425405749076</v>
+        <v>0.1479796616851236</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.1833370420179455</v>
+        <v>0.1843726517405402</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>276</v>
@@ -5674,19 +5674,19 @@
         <v>304397</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>274132</v>
+        <v>273489</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>339697</v>
+        <v>335992</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.2315822327126108</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.2085567981477119</v>
+        <v>0.2080674209656118</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.2584376334879324</v>
+        <v>0.2556192802088026</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>570</v>
@@ -5695,19 +5695,19 @@
         <v>640391</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>595502</v>
+        <v>591558</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>688668</v>
+        <v>694618</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.1912622903512764</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.1778556013573143</v>
+        <v>0.1766776397091383</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.2056811469305123</v>
+        <v>0.2074582329966052</v>
       </c>
     </row>
     <row r="35">
@@ -5724,19 +5724,19 @@
         <v>594328</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>553050</v>
+        <v>549249</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>638348</v>
+        <v>635948</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.2922244014307279</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.2719283359743535</v>
+        <v>0.2700595189213992</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.3138684891680558</v>
+        <v>0.3126883985429507</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>386</v>
@@ -5745,19 +5745,19 @@
         <v>414699</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>380516</v>
+        <v>378716</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>452719</v>
+        <v>446436</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.3154984103856073</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.289492548344406</v>
+        <v>0.2881232923241899</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.3444239420497975</v>
+        <v>0.3396439040549039</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>950</v>
@@ -5766,19 +5766,19 @@
         <v>1009027</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>955687</v>
+        <v>954413</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>1066960</v>
+        <v>1066400</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.3013611419689419</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.2854304193435507</v>
+        <v>0.2850499153407839</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.3186637051815913</v>
+        <v>0.3184965438859074</v>
       </c>
     </row>
     <row r="36">
@@ -5795,19 +5795,19 @@
         <v>373347</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>335644</v>
+        <v>337348</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>410653</v>
+        <v>410821</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.183570640812934</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.1650325108741647</v>
+        <v>0.1658702113452656</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.2019131530265657</v>
+        <v>0.2019959913398122</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>214</v>
@@ -5816,19 +5816,19 @@
         <v>231670</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>200537</v>
+        <v>204335</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>259474</v>
+        <v>261930</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.1762517379081591</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.1525662107853382</v>
+        <v>0.155455560866049</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.1974054694998811</v>
+        <v>0.1992733934522197</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>566</v>
@@ -5837,19 +5837,19 @@
         <v>605017</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>556488</v>
+        <v>561872</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>650226</v>
+        <v>653860</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.1806974393376338</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.166203638357594</v>
+        <v>0.1678114039286653</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.1941996845679478</v>
+        <v>0.1952851283881362</v>
       </c>
     </row>
     <row r="37">
@@ -5866,19 +5866,19 @@
         <v>730139</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>682261</v>
+        <v>685749</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>772836</v>
+        <v>778211</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.3590009440829655</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.3354597377340948</v>
+        <v>0.3371747658318439</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.3799945977393886</v>
+        <v>0.3826374152489834</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>331</v>
@@ -5887,19 +5887,19 @@
         <v>363659</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>331217</v>
+        <v>331680</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>397298</v>
+        <v>399984</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.2766676189936228</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.2519864403329817</v>
+        <v>0.2523387915621683</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.3022601133113444</v>
+        <v>0.3043035525999076</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>1017</v>
@@ -5908,19 +5908,19 @@
         <v>1093798</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>1041635</v>
+        <v>1033066</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>1153083</v>
+        <v>1149159</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.3266791283421478</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.3110999853554418</v>
+        <v>0.3085407221113386</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.34438569898233</v>
+        <v>0.3432137137833702</v>
       </c>
     </row>
     <row r="38">
@@ -6254,19 +6254,19 @@
         <v>43859</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>33139</v>
+        <v>32807</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>58792</v>
+        <v>57606</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.2219989962101865</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1677387564874651</v>
+        <v>0.1660579396938232</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.2975846543453771</v>
+        <v>0.2915839387330789</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>28</v>
@@ -6275,19 +6275,19 @@
         <v>29273</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>20322</v>
+        <v>19913</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>39806</v>
+        <v>39970</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.2262578201773789</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1570775142055528</v>
+        <v>0.153915810533464</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.3076733000793719</v>
+        <v>0.3089408632678695</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>69</v>
@@ -6296,19 +6296,19 @@
         <v>73132</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>58325</v>
+        <v>58746</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>89247</v>
+        <v>89017</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.2236843071085497</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1783946595209372</v>
+        <v>0.1796831248715649</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.2729753904581593</v>
+        <v>0.2722719145505489</v>
       </c>
     </row>
     <row r="5">
@@ -6325,19 +6325,19 @@
         <v>58946</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>45454</v>
+        <v>46662</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>72944</v>
+        <v>72826</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.2983636204965677</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.2300733314498188</v>
+        <v>0.2361886116031817</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.3692161171289386</v>
+        <v>0.3686188063931291</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>44</v>
@@ -6346,19 +6346,19 @@
         <v>44852</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>34202</v>
+        <v>34461</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>55892</v>
+        <v>56174</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.3466716578520705</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.2643565638239785</v>
+        <v>0.2663598944631123</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.4320029873508129</v>
+        <v>0.4341881517062853</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>96</v>
@@ -6367,19 +6367,19 @@
         <v>103798</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>86316</v>
+        <v>88549</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>121887</v>
+        <v>123556</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.3174801800118084</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.2640087523324948</v>
+        <v>0.2708406958480954</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.3728076029187561</v>
+        <v>0.3779114979900447</v>
       </c>
     </row>
     <row r="6">
@@ -6396,19 +6396,19 @@
         <v>48250</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>37577</v>
+        <v>35481</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>63399</v>
+        <v>62184</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.2442239112411997</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.1902035310660587</v>
+        <v>0.1795922206168144</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.3209044746627009</v>
+        <v>0.314751896494139</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>26</v>
@@ -6417,19 +6417,19 @@
         <v>25521</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>17103</v>
+        <v>17663</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>34988</v>
+        <v>35894</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.1972601449116144</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.1321949529975408</v>
+        <v>0.1365226451980973</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.2704308448269222</v>
+        <v>0.277432300277667</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>68</v>
@@ -6438,19 +6438,19 @@
         <v>73771</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>60411</v>
+        <v>59572</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>92605</v>
+        <v>91442</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.2256393095217695</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.184775051888951</v>
+        <v>0.1822080335765806</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.2832465570892798</v>
+        <v>0.2796887203424573</v>
       </c>
     </row>
     <row r="7">
@@ -6467,19 +6467,19 @@
         <v>46509</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>34631</v>
+        <v>34987</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>61210</v>
+        <v>58805</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.2354134720520462</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1752906880336201</v>
+        <v>0.1770942740879999</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.3098234980801746</v>
+        <v>0.2976494440487076</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>28</v>
@@ -6488,19 +6488,19 @@
         <v>29732</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>21440</v>
+        <v>21034</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>40975</v>
+        <v>42045</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.2298103770589362</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1657134224045116</v>
+        <v>0.1625770858587257</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.3167067665408574</v>
+        <v>0.3249817729017213</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>70</v>
@@ -6509,19 +6509,19 @@
         <v>76242</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>61149</v>
+        <v>60914</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>94009</v>
+        <v>92838</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.2331962033578724</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1870323831473281</v>
+        <v>0.186312401800661</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.2875392374919558</v>
+        <v>0.2839591102451651</v>
       </c>
     </row>
     <row r="8">
@@ -6613,19 +6613,19 @@
         <v>27534</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>18078</v>
+        <v>18135</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>38113</v>
+        <v>38795</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.1566412106210857</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.1028465447162327</v>
+        <v>0.103169539447876</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.2168197698640809</v>
+        <v>0.2206993978924396</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>32</v>
@@ -6634,19 +6634,19 @@
         <v>33198</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>22822</v>
+        <v>24318</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>44024</v>
+        <v>44505</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.2087494637291961</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.1435010205862383</v>
+        <v>0.1529077228162637</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.276816930933554</v>
+        <v>0.2798443984203603</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>56</v>
@@ -6655,19 +6655,19 @@
         <v>60733</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>46290</v>
+        <v>46562</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>74849</v>
+        <v>77032</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.1813923441726232</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.1382557680706019</v>
+        <v>0.1390668466107483</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.2235530038487972</v>
+        <v>0.2300737210348423</v>
       </c>
     </row>
     <row r="10">
@@ -6684,19 +6684,19 @@
         <v>49971</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>39432</v>
+        <v>38598</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>61961</v>
+        <v>61454</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.2842792010282571</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.2243271626407929</v>
+        <v>0.2195805778894965</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.3524943126305078</v>
+        <v>0.3496067330624848</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>50</v>
@@ -6705,19 +6705,19 @@
         <v>53177</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>41511</v>
+        <v>41932</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>66158</v>
+        <v>65700</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.3343748811949041</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.2610199417393383</v>
+        <v>0.263664511397021</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.4159942049447915</v>
+        <v>0.4131150545299525</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>98</v>
@@ -6726,19 +6726,19 @@
         <v>103148</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>86715</v>
+        <v>88329</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>119635</v>
+        <v>122131</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.3080743735048182</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.2589925803130038</v>
+        <v>0.2638131786299264</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.3573160875299169</v>
+        <v>0.3647712542936568</v>
       </c>
     </row>
     <row r="11">
@@ -6755,19 +6755,19 @@
         <v>37697</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>28193</v>
+        <v>27679</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>49147</v>
+        <v>48932</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.2144545774236484</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.1603885181871082</v>
+        <v>0.1574660039514051</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.2795964489476142</v>
+        <v>0.2783712270244316</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>37</v>
@@ -6776,19 +6776,19 @@
         <v>39496</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>29321</v>
+        <v>29235</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>52353</v>
+        <v>51299</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.2483456523991608</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.1843710836138711</v>
+        <v>0.1838301257248215</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.3291945746593427</v>
+        <v>0.3225645243201531</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>75</v>
@@ -6797,19 +6797,19 @@
         <v>77192</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>63760</v>
+        <v>62972</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>94573</v>
+        <v>93453</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.230552651584448</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.1904325862944507</v>
+        <v>0.188081068116402</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.2824636698245887</v>
+        <v>0.2791189345653711</v>
       </c>
     </row>
     <row r="12">
@@ -6826,19 +6826,19 @@
         <v>60578</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>48670</v>
+        <v>47998</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>74461</v>
+        <v>74388</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.3446250109270088</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.2768791694313784</v>
+        <v>0.2730599725231415</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.423605222127316</v>
+        <v>0.4231898187678444</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>32</v>
@@ -6847,19 +6847,19 @@
         <v>33164</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>23053</v>
+        <v>23329</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>43918</v>
+        <v>43401</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.208530002676739</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.1449538320133147</v>
+        <v>0.1466919965053461</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.2761535014296926</v>
+        <v>0.2729012268464082</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>87</v>
@@ -6868,19 +6868,19 @@
         <v>93742</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>78605</v>
+        <v>76939</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>112212</v>
+        <v>110738</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.2799806307381106</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.2347726383359688</v>
+        <v>0.2297962017307188</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.3351464285837074</v>
+        <v>0.3307441617093836</v>
       </c>
     </row>
     <row r="13">
@@ -6972,19 +6972,19 @@
         <v>55182</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>41833</v>
+        <v>43344</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>69832</v>
+        <v>69986</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.1750525524006511</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.1327042967516724</v>
+        <v>0.1374998563940977</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.2215242963147535</v>
+        <v>0.2220152092622646</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>20</v>
@@ -6993,19 +6993,19 @@
         <v>21607</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>14906</v>
+        <v>14144</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>29866</v>
+        <v>29833</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.3359258635187391</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.2317499056066749</v>
+        <v>0.2198905489208554</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.4643351200640052</v>
+        <v>0.4638193380480486</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>74</v>
@@ -7014,19 +7014,19 @@
         <v>76789</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>61566</v>
+        <v>61318</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>93913</v>
+        <v>93130</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.2023150266435192</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.1622061881565041</v>
+        <v>0.1615527745998707</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.2474316122588799</v>
+        <v>0.2453676426906247</v>
       </c>
     </row>
     <row r="15">
@@ -7043,19 +7043,19 @@
         <v>81366</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>66428</v>
+        <v>66990</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>98179</v>
+        <v>97441</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.2581145802864424</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.2107263515425359</v>
+        <v>0.2125094667125986</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.3114493047202659</v>
+        <v>0.3091073311159368</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>21</v>
@@ -7064,19 +7064,19 @@
         <v>21753</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>14971</v>
+        <v>14301</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>30953</v>
+        <v>29727</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.3381984424310983</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.2327565883606861</v>
+        <v>0.2223413289712812</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.481222081205219</v>
+        <v>0.46216972790162</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>96</v>
@@ -7085,19 +7085,19 @@
         <v>103119</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>85483</v>
+        <v>85858</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>119737</v>
+        <v>122622</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.2716860310995947</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.2252207351084586</v>
+        <v>0.2262071981286726</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.3154680861963373</v>
+        <v>0.3230687161376976</v>
       </c>
     </row>
     <row r="16">
@@ -7114,19 +7114,19 @@
         <v>56046</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>43885</v>
+        <v>43540</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>71303</v>
+        <v>71465</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1777943256716726</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1392142262695145</v>
+        <v>0.1381219331977359</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.2261908853620745</v>
+        <v>0.2267053257584462</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>4</v>
@@ -7138,16 +7138,16 @@
         <v>1093</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>10785</v>
+        <v>9919</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.06584224466330059</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.01698870794011799</v>
+        <v>0.01698851206394439</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1676681656016489</v>
+        <v>0.1542161113854599</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>58</v>
@@ -7156,19 +7156,19 @@
         <v>60281</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>47435</v>
+        <v>47372</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>74149</v>
+        <v>77269</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1588223115836064</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1249752633658122</v>
+        <v>0.1248102092423994</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1953577855425186</v>
+        <v>0.2035790288903576</v>
       </c>
     </row>
     <row r="17">
@@ -7185,19 +7185,19 @@
         <v>122637</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>106256</v>
+        <v>104425</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>141224</v>
+        <v>139466</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.3890385416412339</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.3370715534620682</v>
+        <v>0.3312645811585663</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.44800168351418</v>
+        <v>0.4424235226186052</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>17</v>
@@ -7206,19 +7206,19 @@
         <v>16726</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>10596</v>
+        <v>10344</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>24343</v>
+        <v>24572</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.260033449386862</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.1647396343879543</v>
+        <v>0.1608175936196151</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.3784668657612609</v>
+        <v>0.3820140840409722</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>134</v>
@@ -7227,19 +7227,19 @@
         <v>139363</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>119659</v>
+        <v>119071</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>159782</v>
+        <v>158910</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.3671766306732797</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.3152642218932069</v>
+        <v>0.3137131094496929</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.4209738506230906</v>
+        <v>0.4186758614201049</v>
       </c>
     </row>
     <row r="18">
@@ -7331,19 +7331,19 @@
         <v>100876</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>81908</v>
+        <v>80548</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>120925</v>
+        <v>121046</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.1557558548382112</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.12646798758775</v>
+        <v>0.124367811395818</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.1867117342575611</v>
+        <v>0.1868987758648026</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>91</v>
@@ -7352,19 +7352,19 @@
         <v>98905</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>82609</v>
+        <v>80142</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>118638</v>
+        <v>116330</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.2460935957382625</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.2055453386675291</v>
+        <v>0.1994084099044686</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.2951925022183823</v>
+        <v>0.289449182172009</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>187</v>
@@ -7373,19 +7373,19 @@
         <v>199781</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>175562</v>
+        <v>175759</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>226007</v>
+        <v>226679</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.1903483392608404</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.1672726889594179</v>
+        <v>0.1674599220150721</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.2153355716632121</v>
+        <v>0.2159758408375403</v>
       </c>
     </row>
     <row r="20">
@@ -7402,19 +7402,19 @@
         <v>173236</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>149473</v>
+        <v>149119</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>195619</v>
+        <v>196854</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.2674813690344318</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.2307910382952486</v>
+        <v>0.2302439506879832</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.3020410857815598</v>
+        <v>0.3039485175219407</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>123</v>
@@ -7423,19 +7423,19 @@
         <v>122889</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>104535</v>
+        <v>106294</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>141171</v>
+        <v>142376</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.3057682780261673</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.2601026110101974</v>
+        <v>0.2644772448854875</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.3512574566427555</v>
+        <v>0.3542562064711008</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>288</v>
@@ -7444,19 +7444,19 @@
         <v>296124</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>267905</v>
+        <v>263699</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>328640</v>
+        <v>323221</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.2821423433923425</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.2552550106257668</v>
+        <v>0.2512475219660659</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.3131225601531436</v>
+        <v>0.3079599166448444</v>
       </c>
     </row>
     <row r="21">
@@ -7473,19 +7473,19 @@
         <v>132043</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>113588</v>
+        <v>110958</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>155157</v>
+        <v>154890</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.203877833645694</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.1753833872768963</v>
+        <v>0.171321998152907</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.2395661454731936</v>
+        <v>0.2391550938308846</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>78</v>
@@ -7494,19 +7494,19 @@
         <v>81121</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>66338</v>
+        <v>65687</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>98437</v>
+        <v>97223</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.2018426558606856</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.1650605051585681</v>
+        <v>0.1634396780171702</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.244929347739065</v>
+        <v>0.2419083985424897</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>202</v>
@@ -7515,19 +7515,19 @@
         <v>213163</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>188170</v>
+        <v>187558</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>243932</v>
+        <v>241958</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.203098515332841</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.1792849604730005</v>
+        <v>0.178701919746189</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.2324146632692407</v>
+        <v>0.2305335498122739</v>
       </c>
     </row>
     <row r="22">
@@ -7544,19 +7544,19 @@
         <v>241502</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>215741</v>
+        <v>216767</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>265906</v>
+        <v>266847</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.372884942481663</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.3331092409960992</v>
+        <v>0.3346936653692856</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.4105663101284283</v>
+        <v>0.4120191950254503</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>97</v>
@@ -7565,19 +7565,19 @@
         <v>98986</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>82004</v>
+        <v>81175</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>117754</v>
+        <v>115369</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.2462954703748846</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.2040414951065917</v>
+        <v>0.2019778388935972</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.2929920098614825</v>
+        <v>0.2870575730212711</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>328</v>
@@ -7586,19 +7586,19 @@
         <v>340488</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>308673</v>
+        <v>311362</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>370453</v>
+        <v>371901</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.3244108020139763</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.2940980201790765</v>
+        <v>0.2966608540590335</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.3529616335494671</v>
+        <v>0.3543408576498466</v>
       </c>
     </row>
     <row r="23">
@@ -7690,19 +7690,19 @@
         <v>57135</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>44004</v>
+        <v>43167</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>74738</v>
+        <v>71511</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.1611483147958215</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.1241124607540935</v>
+        <v>0.1217498975364269</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.2107973396849083</v>
+        <v>0.2016942651281364</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>59</v>
@@ -7711,19 +7711,19 @@
         <v>65511</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>50866</v>
+        <v>51413</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>80954</v>
+        <v>80936</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.2317730894638977</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.1799597704283761</v>
+        <v>0.1818943312988884</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.2864064668351757</v>
+        <v>0.2863446151606763</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>111</v>
@@ -7732,19 +7732,19 @@
         <v>122646</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>103503</v>
+        <v>102529</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>144584</v>
+        <v>144719</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.1924762873229962</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.1624326196472268</v>
+        <v>0.1609045989013152</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.2269038499011967</v>
+        <v>0.2271165754028617</v>
       </c>
     </row>
     <row r="25">
@@ -7761,19 +7761,19 @@
         <v>83670</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>68920</v>
+        <v>69126</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>99830</v>
+        <v>101213</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.2359874580321435</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.194386647159281</v>
+        <v>0.1949675705984935</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.2815665401921009</v>
+        <v>0.2854679082009313</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>68</v>
@@ -7782,19 +7782,19 @@
         <v>72046</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>57472</v>
+        <v>59028</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>86832</v>
+        <v>87881</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.2548933543761074</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.2033317577057986</v>
+        <v>0.2088359669800746</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.3072027653880731</v>
+        <v>0.3109152602180861</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>147</v>
@@ -7803,19 +7803,19 @@
         <v>155716</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>136332</v>
+        <v>134375</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>178943</v>
+        <v>177095</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.2443737984353368</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.2139532123798507</v>
+        <v>0.2108826743100578</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.280825505169093</v>
+        <v>0.2779253000282642</v>
       </c>
     </row>
     <row r="26">
@@ -7832,19 +7832,19 @@
         <v>74334</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>59264</v>
+        <v>59614</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>92207</v>
+        <v>89259</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.2096563322297475</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.1671516022496339</v>
+        <v>0.1681397119588914</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.2600665700584516</v>
+        <v>0.2517528313074203</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>51</v>
@@ -7853,19 +7853,19 @@
         <v>50502</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>39132</v>
+        <v>38231</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>63662</v>
+        <v>63934</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.1786698680057063</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.1384453178321883</v>
+        <v>0.1352561870122309</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.2252286718784312</v>
+        <v>0.2261920177543728</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>124</v>
@@ -7874,19 +7874,19 @@
         <v>124835</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>106792</v>
+        <v>105633</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>147801</v>
+        <v>147325</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.19591125333233</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.167594818346456</v>
+        <v>0.1657765068814681</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.2319524123004471</v>
+        <v>0.2312056345217419</v>
       </c>
     </row>
     <row r="27">
@@ -7903,19 +7903,19 @@
         <v>139412</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>120742</v>
+        <v>121492</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>158806</v>
+        <v>158619</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.3932078949422875</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.3405484784523129</v>
+        <v>0.3426657376964064</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.4479079919654914</v>
+        <v>0.4473797477160531</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>93</v>
@@ -7924,19 +7924,19 @@
         <v>94594</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>80063</v>
+        <v>79577</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>111423</v>
+        <v>111216</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.3346636881542885</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.283254930776865</v>
+        <v>0.2815346147998322</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.3942027389599777</v>
+        <v>0.3934733711520509</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>225</v>
@@ -7945,19 +7945,19 @@
         <v>234006</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>206848</v>
+        <v>207496</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>257254</v>
+        <v>260705</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.367238660909337</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.3246189389341909</v>
+        <v>0.3256360970802535</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.4037243389617882</v>
+        <v>0.4091398257561529</v>
       </c>
     </row>
     <row r="28">
@@ -8049,19 +8049,19 @@
         <v>5185</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>1984</v>
+        <v>1944</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>11547</v>
+        <v>11323</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.06902016114419675</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.02641541211412611</v>
+        <v>0.02587388932085076</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.1537069071501589</v>
+        <v>0.1507302987375196</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>47</v>
@@ -8070,19 +8070,19 @@
         <v>50347</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>36932</v>
+        <v>38091</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>63182</v>
+        <v>63508</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.2444919958544136</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.1793472699328947</v>
+        <v>0.1849727643470621</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.3068180149610753</v>
+        <v>0.3084040343022957</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>52</v>
@@ -8091,19 +8091,19 @@
         <v>55532</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>42995</v>
+        <v>43357</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>70731</v>
+        <v>70755</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.1975890613999262</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.1529810007826368</v>
+        <v>0.1542675266777672</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.2516680891410916</v>
+        <v>0.2517524238801044</v>
       </c>
     </row>
     <row r="30">
@@ -8120,19 +8120,19 @@
         <v>21448</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>13614</v>
+        <v>14027</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>29340</v>
+        <v>29779</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.2855041263282595</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.1812252957038614</v>
+        <v>0.1867187069218171</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.3905586934035123</v>
+        <v>0.3964008120511428</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>61</v>
@@ -8141,19 +8141,19 @@
         <v>66491</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>54446</v>
+        <v>53465</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>81176</v>
+        <v>80337</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.3228877405029905</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.2643955532723651</v>
+        <v>0.2596311388836115</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.3941995654891633</v>
+        <v>0.3901252041025395</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>81</v>
@@ -8162,19 +8162,19 @@
         <v>87939</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>73436</v>
+        <v>72711</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>103638</v>
+        <v>102756</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.3128952467890853</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.2612931710720083</v>
+        <v>0.2587134520991843</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.3687552128823845</v>
+        <v>0.3656151520755954</v>
       </c>
     </row>
     <row r="31">
@@ -8191,19 +8191,19 @@
         <v>18987</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>12584</v>
+        <v>12121</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>27133</v>
+        <v>27399</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.2527482105993439</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.1675061097127941</v>
+        <v>0.1613545608842712</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.3611782184054612</v>
+        <v>0.3647237807484938</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>39</v>
@@ -8212,19 +8212,19 @@
         <v>38972</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>29213</v>
+        <v>28952</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>51210</v>
+        <v>51090</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.1892520107236913</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.1418638199182748</v>
+        <v>0.1405951404225954</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.2486803116022628</v>
+        <v>0.2481003190679917</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>58</v>
@@ -8233,19 +8233,19 @@
         <v>57959</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>44865</v>
+        <v>45074</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>71037</v>
+        <v>73172</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.2062242963659714</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.1596349551547394</v>
+        <v>0.1603779861947733</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.2527552450975171</v>
+        <v>0.2603521368201396</v>
       </c>
     </row>
     <row r="32">
@@ -8262,19 +8262,19 @@
         <v>29503</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>21410</v>
+        <v>21036</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>38624</v>
+        <v>38330</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.3927275019281998</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.285001375238111</v>
+        <v>0.2800145619138987</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.5141381200839605</v>
+        <v>0.5102357054065291</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>49</v>
@@ -8283,19 +8283,19 @@
         <v>50116</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>38136</v>
+        <v>37156</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>64007</v>
+        <v>62597</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.2433682529189045</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.1851908862519054</v>
+        <v>0.1804318386760965</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.3108233702637146</v>
+        <v>0.3039762399086776</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>77</v>
@@ -8304,19 +8304,19 @@
         <v>79619</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>66272</v>
+        <v>64217</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>94202</v>
+        <v>95120</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.283291395445017</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.2358018925882253</v>
+        <v>0.2284888739702366</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.3351789230143089</v>
+        <v>0.3384461712184432</v>
       </c>
     </row>
     <row r="33">
@@ -8408,19 +8408,19 @@
         <v>289772</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>258825</v>
+        <v>258708</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>326821</v>
+        <v>327610</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.1640925700947497</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.146567973865713</v>
+        <v>0.1465012733056662</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.1850723494926027</v>
+        <v>0.1855192957642716</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>277</v>
@@ -8429,19 +8429,19 @@
         <v>298842</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>270842</v>
+        <v>270784</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>334340</v>
+        <v>327888</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.24037874525606</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.2178566806111761</v>
+        <v>0.2178097135183893</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.2689316094318242</v>
+        <v>0.2637420824804818</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>549</v>
@@ -8450,19 +8450,19 @@
         <v>588614</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>541185</v>
+        <v>545476</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>630447</v>
+        <v>634618</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.1956101023034534</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.1798483553382076</v>
+        <v>0.1812741293698084</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.2095118514437694</v>
+        <v>0.2108982165235779</v>
       </c>
     </row>
     <row r="35">
@@ -8479,19 +8479,19 @@
         <v>468636</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>433445</v>
+        <v>432806</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>506348</v>
+        <v>506161</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.2653798878307083</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.2454519755866541</v>
+        <v>0.2450900704726402</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.2867355988600361</v>
+        <v>0.2866294564662156</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>367</v>
@@ -8500,19 +8500,19 @@
         <v>381208</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>353178</v>
+        <v>347997</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>413154</v>
+        <v>410817</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.306631219071942</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.2840848222152021</v>
+        <v>0.2799175971708527</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.33232712039659</v>
+        <v>0.3304473029510676</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>806</v>
@@ -8521,19 +8521,19 @@
         <v>849844</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>804678</v>
+        <v>799680</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>900656</v>
+        <v>903738</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.2824228206858199</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.2674130492377499</v>
+        <v>0.2657519220058425</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.299308781522381</v>
+        <v>0.3003329979292728</v>
       </c>
     </row>
     <row r="36">
@@ -8550,19 +8550,19 @@
         <v>367357</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>332145</v>
+        <v>332243</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>400045</v>
+        <v>400324</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.2080274555315282</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.1880875009207722</v>
+        <v>0.1881427053918867</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.2265377362191294</v>
+        <v>0.2266958516584666</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>235</v>
@@ -8571,19 +8571,19 @@
         <v>239846</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>214781</v>
+        <v>214606</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>270690</v>
+        <v>268690</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.1929241934923981</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.172762300335965</v>
+        <v>0.1726217534742193</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.2177339015845842</v>
+        <v>0.2161253001016574</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>585</v>
@@ -8592,19 +8592,19 @@
         <v>607203</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>565527</v>
+        <v>562838</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>657586</v>
+        <v>652794</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.201787562827926</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.1879374857890986</v>
+        <v>0.187043982178536</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.2185307951902989</v>
+        <v>0.2169383984588058</v>
       </c>
     </row>
     <row r="37">
@@ -8621,19 +8621,19 @@
         <v>640141</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>599213</v>
+        <v>600237</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>678982</v>
+        <v>677238</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.3625000865430139</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.3393233479248328</v>
+        <v>0.3399028243790096</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.3844945513537395</v>
+        <v>0.3835071262156464</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>316</v>
@@ -8642,19 +8642,19 @@
         <v>323317</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>289523</v>
+        <v>296230</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>353138</v>
+        <v>355555</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.2600658421795999</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.232882882403251</v>
+        <v>0.2382772277511218</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.2840525845201329</v>
+        <v>0.2859969684584462</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>921</v>
@@ -8663,19 +8663,19 @@
         <v>963459</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>912386</v>
+        <v>914548</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>1016037</v>
+        <v>1018065</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.3201795141828007</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.3032066974057535</v>
+        <v>0.3039252415397077</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.3376524048844934</v>
+        <v>0.3383265406227642</v>
       </c>
     </row>
     <row r="38">
@@ -9009,19 +9009,19 @@
         <v>50196</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>39878</v>
+        <v>38802</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>63296</v>
+        <v>63335</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.2267743905744309</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1801593700814812</v>
+        <v>0.1753000993793132</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.2859567396138085</v>
+        <v>0.2861346847626599</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>67</v>
@@ -9030,19 +9030,19 @@
         <v>44788</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>34975</v>
+        <v>36041</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>54153</v>
+        <v>54175</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.3172143217304538</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.2477171613786849</v>
+        <v>0.2552672316230022</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.3835444962907657</v>
+        <v>0.3836996664211517</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>122</v>
@@ -9051,19 +9051,19 @@
         <v>94984</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>80587</v>
+        <v>79827</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>112259</v>
+        <v>110523</v>
       </c>
       <c r="U4" s="6" t="n">
-        <v>0.2619962383933396</v>
+        <v>0.2619962383933397</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.2222857331848685</v>
+        <v>0.2201900765247475</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.3096470367939411</v>
+        <v>0.3048579159893343</v>
       </c>
     </row>
     <row r="5">
@@ -9080,19 +9080,19 @@
         <v>74688</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>61651</v>
+        <v>60749</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>89054</v>
+        <v>91294</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.3374221684465487</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.27852451780113</v>
+        <v>0.2744494453450354</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.4023255254830211</v>
+        <v>0.4124456621158945</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>60</v>
@@ -9101,19 +9101,19 @@
         <v>41183</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>33461</v>
+        <v>32341</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>51168</v>
+        <v>49508</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>0.2916859172541974</v>
+        <v>0.2916859172541973</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.2369879058593563</v>
+        <v>0.2290607219466583</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.3623998127473956</v>
+        <v>0.3506462710789903</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>133</v>
@@ -9122,19 +9122,19 @@
         <v>115871</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>98460</v>
+        <v>97649</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>133684</v>
+        <v>132776</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.3196101770096545</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.2715840254043993</v>
+        <v>0.2693495951775567</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.3687439409708667</v>
+        <v>0.366239311451666</v>
       </c>
     </row>
     <row r="6">
@@ -9151,19 +9151,19 @@
         <v>44955</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>34512</v>
+        <v>34692</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>57814</v>
+        <v>58210</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>0.203097780551222</v>
+        <v>0.2030977805512221</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.155918296514554</v>
+        <v>0.1567299215156821</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.2611912850921217</v>
+        <v>0.262979020423061</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>38</v>
@@ -9172,19 +9172,19 @@
         <v>26326</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>19001</v>
+        <v>19509</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>34915</v>
+        <v>34925</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.1864562000355215</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.1345758510225424</v>
+        <v>0.1381725710350879</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.2472878125663396</v>
+        <v>0.2473599026884832</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>87</v>
@@ -9193,19 +9193,19 @@
         <v>71281</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>57303</v>
+        <v>58315</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>87100</v>
+        <v>85989</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.1966167139593101</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.1580618975975168</v>
+        <v>0.1608515105676848</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.2402496828133835</v>
+        <v>0.2371857866259795</v>
       </c>
     </row>
     <row r="7">
@@ -9222,19 +9222,19 @@
         <v>51509</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>39250</v>
+        <v>38991</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>65319</v>
+        <v>64138</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.2327056604277984</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1773215526671213</v>
+        <v>0.176150964278255</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.2950981674752669</v>
+        <v>0.2897617930838502</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>41</v>
@@ -9243,19 +9243,19 @@
         <v>28894</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>21585</v>
+        <v>20957</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>38060</v>
+        <v>37657</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>0.2046435609798272</v>
+        <v>0.2046435609798273</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1528755521306907</v>
+        <v>0.1484317491005844</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.2695664586481211</v>
+        <v>0.2667072675083363</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>97</v>
@@ -9264,19 +9264,19 @@
         <v>80403</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>65628</v>
+        <v>66679</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>95824</v>
+        <v>96552</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.2217768706376958</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1810226213966347</v>
+        <v>0.1839227441499423</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.26431472293487</v>
+        <v>0.2663210778215631</v>
       </c>
     </row>
     <row r="8">
@@ -9368,19 +9368,19 @@
         <v>39759</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>29249</v>
+        <v>28655</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>52227</v>
+        <v>53822</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.2042782094598783</v>
+        <v>0.2042782094598782</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.1502748896334925</v>
+        <v>0.1472262065372673</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.2683320460351866</v>
+        <v>0.2765273983085522</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>47</v>
@@ -9389,19 +9389,19 @@
         <v>33194</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>25902</v>
+        <v>25402</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>42473</v>
+        <v>42341</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.2162920842041399</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.1687820958931305</v>
+        <v>0.165521330077731</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.2767562299090126</v>
+        <v>0.275897344899155</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>85</v>
@@ -9410,19 +9410,19 @@
         <v>72953</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>59025</v>
+        <v>59533</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>89475</v>
+        <v>89813</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.2095747638466327</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.1695637400976363</v>
+        <v>0.1710231923249715</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.2570370426751123</v>
+        <v>0.2580082845277297</v>
       </c>
     </row>
     <row r="10">
@@ -9439,19 +9439,19 @@
         <v>56404</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>44580</v>
+        <v>44952</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>71751</v>
+        <v>70828</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>0.2897936076976618</v>
+        <v>0.2897936076976617</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.2290450171711239</v>
+        <v>0.2309550337232094</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.3686438253832506</v>
+        <v>0.3639054202941218</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>71</v>
@@ -9460,19 +9460,19 @@
         <v>52901</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>42900</v>
+        <v>43311</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>63318</v>
+        <v>64462</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.3447028579026504</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.2795384332622975</v>
+        <v>0.2822154298871809</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.412584503304813</v>
+        <v>0.4200405129224527</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>128</v>
@@ -9481,19 +9481,19 @@
         <v>109304</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>92972</v>
+        <v>93309</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>126166</v>
+        <v>126403</v>
       </c>
       <c r="U10" s="6" t="n">
-        <v>0.3140014370813951</v>
+        <v>0.314001437081395</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.2670827239346825</v>
+        <v>0.2680513782832482</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.3624394685707707</v>
+        <v>0.3631210756589608</v>
       </c>
     </row>
     <row r="11">
@@ -9510,19 +9510,19 @@
         <v>42461</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>32055</v>
+        <v>32199</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>55085</v>
+        <v>54468</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.2181590052927021</v>
+        <v>0.2181590052927022</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.16469384962641</v>
+        <v>0.1654327726433821</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.2830205211792193</v>
+        <v>0.2798470889559896</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>37</v>
@@ -9531,19 +9531,19 @@
         <v>28695</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>20493</v>
+        <v>20602</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>38580</v>
+        <v>37676</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.1869797065142625</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.1335318575906603</v>
+        <v>0.1342427396245804</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.2513869992616549</v>
+        <v>0.2455003079136089</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>84</v>
@@ -9552,19 +9552,19 @@
         <v>71156</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>58097</v>
+        <v>56512</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>85140</v>
+        <v>86477</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.2044129945146432</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.1668975038317007</v>
+        <v>0.1623450519008149</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.24458419671255</v>
+        <v>0.2484252697359294</v>
       </c>
     </row>
     <row r="12">
@@ -9581,19 +9581,19 @@
         <v>56010</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>43069</v>
+        <v>42965</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>69152</v>
+        <v>69691</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.2877691775497579</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.2212822701048151</v>
+        <v>0.2207490418134707</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.35529271800245</v>
+        <v>0.3580634855400973</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>53</v>
@@ -9602,19 +9602,19 @@
         <v>38678</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>29236</v>
+        <v>29287</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>48081</v>
+        <v>48852</v>
       </c>
       <c r="N12" s="6" t="n">
-        <v>0.2520253513789472</v>
+        <v>0.2520253513789473</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.1905017042046079</v>
+        <v>0.190833543101424</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.3132997669214423</v>
+        <v>0.3183217658887808</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>111</v>
@@ -9623,19 +9623,19 @@
         <v>94687</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>79967</v>
+        <v>79756</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>110768</v>
+        <v>111107</v>
       </c>
       <c r="U12" s="6" t="n">
-        <v>0.2720108045573293</v>
+        <v>0.2720108045573292</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.2297244212059666</v>
+        <v>0.2291184766177275</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.3182066316034642</v>
+        <v>0.3191811591241581</v>
       </c>
     </row>
     <row r="13">
@@ -9727,19 +9727,19 @@
         <v>36364</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>25551</v>
+        <v>26733</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>48940</v>
+        <v>48248</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.1568278048482206</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.1101927326776042</v>
+        <v>0.1152927576387006</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.2110638277041506</v>
+        <v>0.2080803796453203</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>12</v>
@@ -9748,19 +9748,19 @@
         <v>7113</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>3659</v>
+        <v>4083</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>11958</v>
+        <v>12667</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.1443308568342997</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.07423536559152299</v>
+        <v>0.08283579084755677</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.2426200946923392</v>
+        <v>0.2570056793243014</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>50</v>
@@ -9769,19 +9769,19 @@
         <v>43478</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>32928</v>
+        <v>32307</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>55623</v>
+        <v>56494</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.1546371401211522</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.1171139981544444</v>
+        <v>0.1149061230532037</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.1978338537388251</v>
+        <v>0.2009338429665999</v>
       </c>
     </row>
     <row r="15">
@@ -9798,19 +9798,19 @@
         <v>51163</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>39446</v>
+        <v>39163</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>64522</v>
+        <v>64936</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.2206525250350121</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.1701185960841562</v>
+        <v>0.1688994542911005</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.2782657033488922</v>
+        <v>0.2800479958049799</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>29</v>
@@ -9819,19 +9819,19 @@
         <v>18282</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>13510</v>
+        <v>13351</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>24303</v>
+        <v>23985</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>0.3709388273885746</v>
+        <v>0.3709388273885747</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.2741183676613025</v>
+        <v>0.2708880237462823</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.4931064205940104</v>
+        <v>0.4866435132799726</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>82</v>
@@ -9840,19 +9840,19 @@
         <v>69445</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>55896</v>
+        <v>56494</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>82930</v>
+        <v>84199</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.2469971094215966</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.1988058314546843</v>
+        <v>0.2009333767799806</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.2949562877648931</v>
+        <v>0.2994701265555348</v>
       </c>
     </row>
     <row r="16">
@@ -9869,19 +9869,19 @@
         <v>59291</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>44994</v>
+        <v>46231</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>73445</v>
+        <v>76045</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.255703039403544</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1940446519235283</v>
+        <v>0.199381004430212</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.3167482535076586</v>
+        <v>0.3279575975819872</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>18</v>
@@ -9890,19 +9890,19 @@
         <v>12206</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>7870</v>
+        <v>7307</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>17744</v>
+        <v>17312</v>
       </c>
       <c r="N16" s="6" t="n">
-        <v>0.2476497398561824</v>
+        <v>0.2476497398561825</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1596896054643413</v>
+        <v>0.148249560327734</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.3600141698849977</v>
+        <v>0.3512617586984733</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>77</v>
@@ -9911,19 +9911,19 @@
         <v>71496</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>57671</v>
+        <v>57629</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>88140</v>
+        <v>87020</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.2542913283813593</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.205117235802721</v>
+        <v>0.2049708520683815</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.3134882220045661</v>
+        <v>0.3095045838719174</v>
       </c>
     </row>
     <row r="17">
@@ -9940,19 +9940,19 @@
         <v>85055</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>71584</v>
+        <v>70920</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>100898</v>
+        <v>101041</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.3668166307132233</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.3087198744210957</v>
+        <v>0.3058577876925221</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.4351419840467045</v>
+        <v>0.4357582755782222</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>18</v>
@@ -9961,19 +9961,19 @@
         <v>11685</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>7529</v>
+        <v>7235</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>17535</v>
+        <v>17479</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.2370805759209434</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.1527669417706199</v>
+        <v>0.1467942295565152</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.3557712530183329</v>
+        <v>0.354639445929947</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>111</v>
@@ -9982,19 +9982,19 @@
         <v>96740</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>82722</v>
+        <v>79291</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>112450</v>
+        <v>112070</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.344074422075892</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.2942185780809087</v>
+        <v>0.2820138490065375</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.3999529669068346</v>
+        <v>0.3985999400621755</v>
       </c>
     </row>
     <row r="18">
@@ -10086,19 +10086,19 @@
         <v>83627</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>65516</v>
+        <v>67285</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>102051</v>
+        <v>102848</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>0.1471272861731233</v>
+        <v>0.1471272861731234</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.1152645270328085</v>
+        <v>0.118376269549761</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.1795405799099934</v>
+        <v>0.1809436709419751</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>91</v>
@@ -10107,19 +10107,19 @@
         <v>61986</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>50269</v>
+        <v>51430</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>75645</v>
+        <v>74791</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.1999717257085548</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.1621731062985771</v>
+        <v>0.1659169624655814</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.2440379456818814</v>
+        <v>0.241284460926008</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>171</v>
@@ -10128,19 +10128,19 @@
         <v>145613</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>125535</v>
+        <v>124434</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>169452</v>
+        <v>170443</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.1657757533044209</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.1429180073341892</v>
+        <v>0.1416641152301311</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.1929162908071542</v>
+        <v>0.1940440085698553</v>
       </c>
     </row>
     <row r="20">
@@ -10157,19 +10157,19 @@
         <v>155271</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>132492</v>
+        <v>133282</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>179686</v>
+        <v>181136</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.2731725873346426</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.2330966296778662</v>
+        <v>0.2344855576490875</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.3161264924598113</v>
+        <v>0.3186767174713896</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>120</v>
@@ -10178,19 +10178,19 @@
         <v>87891</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>73136</v>
+        <v>73451</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>102226</v>
+        <v>101954</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.2835440890620106</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.2359441489835689</v>
+        <v>0.2369585697501326</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.3297898199131075</v>
+        <v>0.328914325768248</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>261</v>
@@ -10199,19 +10199,19 @@
         <v>243162</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>215441</v>
+        <v>216737</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>271882</v>
+        <v>268156</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.2768326244315511</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.2452734274155997</v>
+        <v>0.246748881477279</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.3095295831991774</v>
+        <v>0.3052872761174746</v>
       </c>
     </row>
     <row r="21">
@@ -10228,19 +10228,19 @@
         <v>126288</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>107394</v>
+        <v>107387</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>147028</v>
+        <v>147704</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.2221810953728837</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.1889413461062592</v>
+        <v>0.1889288485198909</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.2586703726945849</v>
+        <v>0.2598588527215405</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>105</v>
@@ -10249,19 +10249,19 @@
         <v>82632</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>69288</v>
+        <v>70011</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>98544</v>
+        <v>99115</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.2665804310874003</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.2235296793491624</v>
+        <v>0.2258638668502141</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.3179118005374583</v>
+        <v>0.3197537351428353</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>235</v>
@@ -10270,19 +10270,19 @@
         <v>208920</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>182994</v>
+        <v>186834</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>235218</v>
+        <v>236961</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.2378493389951566</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.2083331133203649</v>
+        <v>0.2127054175514771</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.2677885870492716</v>
+        <v>0.2697723788671007</v>
       </c>
     </row>
     <row r="22">
@@ -10299,19 +10299,19 @@
         <v>203214</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>178046</v>
+        <v>177072</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>225926</v>
+        <v>226194</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.3575190311193504</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.3132411753681561</v>
+        <v>0.3115276457415271</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.3974762802298482</v>
+        <v>0.3979490003993057</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>99</v>
@@ -10320,19 +10320,19 @@
         <v>77463</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>64106</v>
+        <v>64157</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>91783</v>
+        <v>92927</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>0.2499037541420343</v>
+        <v>0.2499037541420342</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.2068128440666262</v>
+        <v>0.2069753382741714</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.2961003325865946</v>
+        <v>0.2997927091536687</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>311</v>
@@ -10341,19 +10341,19 @@
         <v>280677</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>253549</v>
+        <v>252383</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>309029</v>
+        <v>308756</v>
       </c>
       <c r="U22" s="6" t="n">
-        <v>0.3195422832688712</v>
+        <v>0.3195422832688714</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.2886579846404314</v>
+        <v>0.287330738013459</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.3518205080030928</v>
+        <v>0.3515093678865696</v>
       </c>
     </row>
     <row r="23">
@@ -10445,19 +10445,19 @@
         <v>31760</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>22249</v>
+        <v>22074</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>43420</v>
+        <v>42523</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.1147484290301037</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.08038647269272535</v>
+        <v>0.0797534906731129</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.1568769910681129</v>
+        <v>0.1536384311333838</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>86</v>
@@ -10466,19 +10466,19 @@
         <v>56616</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>45384</v>
+        <v>46891</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>68055</v>
+        <v>68225</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.2263871306587372</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.1814741287954172</v>
+        <v>0.1875001619629007</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.2721281385284343</v>
+        <v>0.2728084942200846</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>121</v>
@@ -10487,19 +10487,19 @@
         <v>88375</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>73656</v>
+        <v>72549</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>104963</v>
+        <v>104662</v>
       </c>
       <c r="U24" s="6" t="n">
-        <v>0.1677399202262536</v>
+        <v>0.1677399202262535</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.1398020804517377</v>
+        <v>0.1377002914865617</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.1992245519822846</v>
+        <v>0.1986526015191587</v>
       </c>
     </row>
     <row r="25">
@@ -10516,19 +10516,19 @@
         <v>54351</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>38985</v>
+        <v>41396</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>70511</v>
+        <v>71857</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.1963734748562442</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.1408556718020196</v>
+        <v>0.14956590073754</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.254759196618134</v>
+        <v>0.2596213869992063</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>103</v>
@@ -10537,19 +10537,19 @@
         <v>75061</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>62605</v>
+        <v>62794</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>88513</v>
+        <v>88235</v>
       </c>
       <c r="N25" s="6" t="n">
-        <v>0.300142954581016</v>
+        <v>0.3001429545810161</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.2503367727696114</v>
+        <v>0.2510903491468081</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.3539328019077469</v>
+        <v>0.3528189100734015</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>152</v>
@@ -10558,19 +10558,19 @@
         <v>129412</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>111997</v>
+        <v>111544</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>151478</v>
+        <v>151467</v>
       </c>
       <c r="U25" s="6" t="n">
-        <v>0.2456296861077546</v>
+        <v>0.2456296861077545</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.2125745646193598</v>
+        <v>0.2117140018611335</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.287510327180953</v>
+        <v>0.2874900735266908</v>
       </c>
     </row>
     <row r="26">
@@ -10587,19 +10587,19 @@
         <v>82780</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>68499</v>
+        <v>67238</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>101514</v>
+        <v>100215</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>0.2990883419193689</v>
+        <v>0.2990883419193688</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.2474884565455174</v>
+        <v>0.2429317317734994</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.3667714516774788</v>
+        <v>0.362080635952459</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>83</v>
@@ -10608,19 +10608,19 @@
         <v>59119</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>48394</v>
+        <v>48036</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>70200</v>
+        <v>71001</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.2363953323711425</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.1935100994140941</v>
+        <v>0.1920798325873664</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.2807060179902832</v>
+        <v>0.2839068950084333</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>161</v>
@@ -10629,19 +10629,19 @@
         <v>141899</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>123191</v>
+        <v>121371</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>165218</v>
+        <v>164090</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.2693298798890035</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.2338203160203067</v>
+        <v>0.2303657636814532</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.313589806860131</v>
+        <v>0.311449064730739</v>
       </c>
     </row>
     <row r="27">
@@ -10658,19 +10658,19 @@
         <v>107884</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>92160</v>
+        <v>91921</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>127163</v>
+        <v>124802</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.3897897541942832</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.3329763680708204</v>
+        <v>0.3321149091118485</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.4594428082906748</v>
+        <v>0.4509151253070491</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>81</v>
@@ -10679,19 +10679,19 @@
         <v>59289</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>47930</v>
+        <v>48100</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>73260</v>
+        <v>73900</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.2370745823891044</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.1916553312519386</v>
+        <v>0.1923357144146924</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.2929384066842061</v>
+        <v>0.2955005203996628</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>193</v>
@@ -10700,19 +10700,19 @@
         <v>167173</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>146745</v>
+        <v>146561</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>189663</v>
+        <v>188464</v>
       </c>
       <c r="U27" s="6" t="n">
-        <v>0.3173005137769885</v>
+        <v>0.3173005137769884</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.2785276475060252</v>
+        <v>0.2781774577573379</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.3599880448173296</v>
+        <v>0.3577107812424857</v>
       </c>
     </row>
     <row r="28">
@@ -10807,7 +10807,7 @@
         <v>0</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>6144</v>
+        <v>6763</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.02910348919989691</v>
@@ -10816,7 +10816,7 @@
         <v>0</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.1932253109540789</v>
+        <v>0.2127086180366913</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>32</v>
@@ -10825,19 +10825,19 @@
         <v>23082</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>16586</v>
+        <v>16048</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>32996</v>
+        <v>32564</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.1814543433474796</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.1303860793794965</v>
+        <v>0.1261550185426396</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.2593868846788013</v>
+        <v>0.2559916369768463</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>33</v>
@@ -10846,19 +10846,19 @@
         <v>24008</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>16233</v>
+        <v>16351</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>33863</v>
+        <v>32961</v>
       </c>
       <c r="U29" s="6" t="n">
-        <v>0.1509882516358884</v>
+        <v>0.1509882516358885</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.1020903609314947</v>
+        <v>0.1028359673385534</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.2129690810491933</v>
+        <v>0.2073007142090866</v>
       </c>
     </row>
     <row r="30">
@@ -10875,19 +10875,19 @@
         <v>9601</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>2786</v>
+        <v>3064</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>19372</v>
+        <v>19143</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.3019664719308119</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.08761745324569462</v>
+        <v>0.09637527596659073</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.6092457245697221</v>
+        <v>0.6020611969283477</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>58</v>
@@ -10896,19 +10896,19 @@
         <v>41947</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>32941</v>
+        <v>32976</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>52755</v>
+        <v>54445</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.3297569513366846</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.2589596810142895</v>
+        <v>0.2592314678013055</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.4147219729336515</v>
+        <v>0.4280036725415296</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>62</v>
@@ -10917,19 +10917,19 @@
         <v>51549</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>39367</v>
+        <v>39502</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>64950</v>
+        <v>66579</v>
       </c>
       <c r="U30" s="6" t="n">
-        <v>0.3241995995316974</v>
+        <v>0.3241995995316975</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.2475887879889771</v>
+        <v>0.2484342349582325</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.4084801060028057</v>
+        <v>0.4187263831162584</v>
       </c>
     </row>
     <row r="31">
@@ -10946,19 +10946,19 @@
         <v>12417</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>4614</v>
+        <v>4849</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>20959</v>
+        <v>20944</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.3905284855901733</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.1451261887344496</v>
+        <v>0.1524969118720091</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.6591695210465007</v>
+        <v>0.6586898966512816</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>43</v>
@@ -10967,19 +10967,19 @@
         <v>39910</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>29844</v>
+        <v>29107</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>51770</v>
+        <v>51542</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.3137457898118738</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.2346147707785808</v>
+        <v>0.2288214978887624</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.4069772289971418</v>
+        <v>0.405184390907086</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>49</v>
@@ -10988,19 +10988,19 @@
         <v>52328</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>40105</v>
+        <v>37827</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>67857</v>
+        <v>66235</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.3291002731492552</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.252228983364104</v>
+        <v>0.237898771414183</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.4267647939760058</v>
+        <v>0.4165671004446831</v>
       </c>
     </row>
     <row r="32">
@@ -11017,19 +11017,19 @@
         <v>8852</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>3435</v>
+        <v>3048</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>18709</v>
+        <v>18133</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>0.2784015532791179</v>
+        <v>0.278401553279118</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.1080342091371228</v>
+        <v>0.09586393121646515</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.588392695827803</v>
+        <v>0.5702995409398628</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>31</v>
@@ -11038,19 +11038,19 @@
         <v>22267</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>14885</v>
+        <v>15714</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>30323</v>
+        <v>32450</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.1750429155039621</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.1170169011000319</v>
+        <v>0.1235324815766944</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.2383784825274718</v>
+        <v>0.2550966551840435</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>38</v>
@@ -11059,19 +11059,19 @@
         <v>31119</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>21467</v>
+        <v>21695</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>44334</v>
+        <v>44528</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.195711875683159</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.1350086372239017</v>
+        <v>0.1364438147282084</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.278823149738741</v>
+        <v>0.2800450304767638</v>
       </c>
     </row>
     <row r="33">
@@ -11163,19 +11163,19 @@
         <v>242632</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>213150</v>
+        <v>215521</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>274513</v>
+        <v>274484</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.1591208371961428</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.1397865749688116</v>
+        <v>0.1413413435738063</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.1800292597373</v>
+        <v>0.180010181971016</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>335</v>
@@ -11184,19 +11184,19 @@
         <v>226779</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>205603</v>
+        <v>205041</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>249584</v>
+        <v>249949</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.2199157638623776</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.199380817566302</v>
+        <v>0.1988360623348079</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.2420310618017014</v>
+        <v>0.242384714458478</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>582</v>
@@ -11205,19 +11205,19 @@
         <v>469410</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>432093</v>
+        <v>429613</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>504978</v>
+        <v>504821</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.1836479545330344</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.1690483886724234</v>
+        <v>0.1680778021157077</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.1975631652333394</v>
+        <v>0.1975018378230762</v>
       </c>
     </row>
     <row r="35">
@@ -11234,19 +11234,19 @@
         <v>401479</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>367534</v>
+        <v>363680</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>440165</v>
+        <v>439137</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.2632946889997154</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.2410329545735479</v>
+        <v>0.2385056185677427</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.2886653995602483</v>
+        <v>0.2879911158088607</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>441</v>
@@ -11255,19 +11255,19 @@
         <v>317265</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>289341</v>
+        <v>292359</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>342561</v>
+        <v>344514</v>
       </c>
       <c r="N35" s="6" t="n">
-        <v>0.3076638369215701</v>
+        <v>0.3076638369215702</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.2805843433622482</v>
+        <v>0.2835116015160176</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.3321939417355084</v>
+        <v>0.3340883136211291</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>818</v>
@@ -11276,19 +11276,19 @@
         <v>718744</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>674402</v>
+        <v>671781</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>762807</v>
+        <v>764408</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.2811949868846315</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.2638471084972572</v>
+        <v>0.2628214971307736</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.2984339721225401</v>
+        <v>0.2990603391309082</v>
       </c>
     </row>
     <row r="36">
@@ -11305,19 +11305,19 @@
         <v>368193</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>333881</v>
+        <v>334249</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>404423</v>
+        <v>405447</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.2414651472574888</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.2189632539847875</v>
+        <v>0.2192044780596559</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.265225190762166</v>
+        <v>0.2658967561998279</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>324</v>
@@ -11326,19 +11326,19 @@
         <v>248889</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>225862</v>
+        <v>223042</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>275872</v>
+        <v>275734</v>
       </c>
       <c r="N36" s="6" t="n">
-        <v>0.2413565894125997</v>
+        <v>0.2413565894125998</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.2190272737418779</v>
+        <v>0.2162925265874518</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.2675229685308113</v>
+        <v>0.2673896093754588</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>693</v>
@@ -11347,19 +11347,19 @@
         <v>617081</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>573922</v>
+        <v>574594</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>657486</v>
+        <v>662771</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.2414213506589001</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.2245362440004375</v>
+        <v>0.2247991204406408</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.2572291557526754</v>
+        <v>0.2592967882621396</v>
       </c>
     </row>
     <row r="37">
@@ -11376,19 +11376,19 @@
         <v>512524</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>473012</v>
+        <v>471513</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>552656</v>
+        <v>552029</v>
       </c>
       <c r="G37" s="6" t="n">
-        <v>0.336119326546653</v>
+        <v>0.3361193265466531</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.3102069580068538</v>
+        <v>0.3092238244082091</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.3624383587414914</v>
+        <v>0.3620275061284988</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>323</v>
@@ -11397,19 +11397,19 @@
         <v>238275</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>212676</v>
+        <v>215436</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>262124</v>
+        <v>263785</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.2310638098034525</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.2062397433520847</v>
+        <v>0.2089158765962972</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.2541915443937554</v>
+        <v>0.2558022156657532</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>861</v>
@@ -11418,19 +11418,19 @@
         <v>750798</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>706009</v>
+        <v>706900</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>794428</v>
+        <v>804448</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.2937357079234341</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.2762126136807451</v>
+        <v>0.276561154497198</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.3108047479123645</v>
+        <v>0.3147251958807124</v>
       </c>
     </row>
     <row r="38">
